--- a/Reports/RelatorioClientesEmpresas.xlsx
+++ b/Reports/RelatorioClientesEmpresas.xlsx
@@ -40,7 +40,7 @@
     <x:t>Julie Lynch</x:t>
   </x:si>
   <x:si>
-    <x:t>282175148</x:t>
+    <x:t>28.217.514-8</x:t>
   </x:si>
   <x:si>
     <x:t>False</x:t>
@@ -58,7 +58,7 @@
     <x:t>Max Abernathy</x:t>
   </x:si>
   <x:si>
-    <x:t>268663343</x:t>
+    <x:t>26.866.334-3</x:t>
   </x:si>
   <x:si>
     <x:t>True</x:t>
@@ -82,7 +82,7 @@
     <x:t>Eileen Hansen</x:t>
   </x:si>
   <x:si>
-    <x:t>264765974</x:t>
+    <x:t>26.476.597-4</x:t>
   </x:si>
   <x:si>
     <x:t>558</x:t>
@@ -103,7 +103,7 @@
     <x:t>Daniel Cummerata</x:t>
   </x:si>
   <x:si>
-    <x:t>233963936</x:t>
+    <x:t>23.396.393-6</x:t>
   </x:si>
   <x:si>
     <x:t>13</x:t>
@@ -112,7 +112,7 @@
     <x:t>Kenny Ankunding</x:t>
   </x:si>
   <x:si>
-    <x:t>170597296</x:t>
+    <x:t>17.059.729-6</x:t>
   </x:si>
   <x:si>
     <x:t>861</x:t>
@@ -133,7 +133,7 @@
     <x:t>Myrtle Crist</x:t>
   </x:si>
   <x:si>
-    <x:t>144207800</x:t>
+    <x:t>14.420.780-0</x:t>
   </x:si>
   <x:si>
     <x:t>29</x:t>
@@ -148,7 +148,7 @@
     <x:t>Geoffrey Hills</x:t>
   </x:si>
   <x:si>
-    <x:t>286691930</x:t>
+    <x:t>28.669.193-0</x:t>
   </x:si>
   <x:si>
     <x:t>280</x:t>
@@ -163,7 +163,7 @@
     <x:t>Rolando Conn</x:t>
   </x:si>
   <x:si>
-    <x:t>124624685</x:t>
+    <x:t>12.462.468-5</x:t>
   </x:si>
   <x:si>
     <x:t>633</x:t>
@@ -178,7 +178,7 @@
     <x:t>Richard Robel</x:t>
   </x:si>
   <x:si>
-    <x:t>167173936</x:t>
+    <x:t>16.717.393-6</x:t>
   </x:si>
   <x:si>
     <x:t>Gaylord, Koss and Johnson</x:t>
@@ -190,7 +190,7 @@
     <x:t>Tiffany Hegmann</x:t>
   </x:si>
   <x:si>
-    <x:t>139885277</x:t>
+    <x:t>13.988.527-7</x:t>
   </x:si>
   <x:si>
     <x:t>831</x:t>
@@ -205,7 +205,7 @@
     <x:t>Harold Fisher</x:t>
   </x:si>
   <x:si>
-    <x:t>110071263</x:t>
+    <x:t>11.007.126-3</x:t>
   </x:si>
   <x:si>
     <x:t>697</x:t>
@@ -220,7 +220,7 @@
     <x:t>Guillermo McKenzie</x:t>
   </x:si>
   <x:si>
-    <x:t>142444715</x:t>
+    <x:t>14.244.471-5</x:t>
   </x:si>
   <x:si>
     <x:t>737</x:t>
@@ -235,7 +235,7 @@
     <x:t>Willie Brown</x:t>
   </x:si>
   <x:si>
-    <x:t>103181326</x:t>
+    <x:t>10.318.132-6</x:t>
   </x:si>
   <x:si>
     <x:t>561</x:t>
@@ -256,7 +256,7 @@
     <x:t>Virginia Rath</x:t>
   </x:si>
   <x:si>
-    <x:t>100039790</x:t>
+    <x:t>10.003.979-0</x:t>
   </x:si>
   <x:si>
     <x:t>866</x:t>
@@ -277,7 +277,7 @@
     <x:t>Owen Hodkiewicz</x:t>
   </x:si>
   <x:si>
-    <x:t>158661664</x:t>
+    <x:t>15.866.166-4</x:t>
   </x:si>
   <x:si>
     <x:t>363</x:t>
@@ -292,7 +292,7 @@
     <x:t>Erin Franecki</x:t>
   </x:si>
   <x:si>
-    <x:t>241695333</x:t>
+    <x:t>24.169.533-3</x:t>
   </x:si>
   <x:si>
     <x:t>Quitzon, Goldner and Sanford</x:t>
@@ -334,7 +334,7 @@
     <x:t>Earnest Abbott</x:t>
   </x:si>
   <x:si>
-    <x:t>272368776</x:t>
+    <x:t>27.236.877-6</x:t>
   </x:si>
   <x:si>
     <x:t>33</x:t>
@@ -361,7 +361,7 @@
     <x:t>Becky Abernathy</x:t>
   </x:si>
   <x:si>
-    <x:t>262697580</x:t>
+    <x:t>26.269.758-0</x:t>
   </x:si>
   <x:si>
     <x:t>547</x:t>
@@ -373,7 +373,7 @@
     <x:t>Alexis Stokes</x:t>
   </x:si>
   <x:si>
-    <x:t>140136428</x:t>
+    <x:t>14.013.642-8</x:t>
   </x:si>
   <x:si>
     <x:t>968</x:t>
@@ -388,7 +388,7 @@
     <x:t>Veronica Carter</x:t>
   </x:si>
   <x:si>
-    <x:t>265066999</x:t>
+    <x:t>26.506.699-9</x:t>
   </x:si>
   <x:si>
     <x:t>382</x:t>
@@ -415,7 +415,7 @@
     <x:t>Lucille Hermiston</x:t>
   </x:si>
   <x:si>
-    <x:t>270730621</x:t>
+    <x:t>27.073.062-1</x:t>
   </x:si>
   <x:si>
     <x:t>386</x:t>
@@ -436,7 +436,7 @@
     <x:t>Dan Koss</x:t>
   </x:si>
   <x:si>
-    <x:t>216527635</x:t>
+    <x:t>21.652.763-5</x:t>
   </x:si>
   <x:si>
     <x:t>Schowalter - Corkery</x:t>
@@ -460,7 +460,7 @@
     <x:t>Renee Baumbach</x:t>
   </x:si>
   <x:si>
-    <x:t>198314957</x:t>
+    <x:t>19.831.495-7</x:t>
   </x:si>
   <x:si>
     <x:t>99</x:t>
@@ -481,7 +481,7 @@
     <x:t>Gordon Schaefer</x:t>
   </x:si>
   <x:si>
-    <x:t>110086589</x:t>
+    <x:t>11.008.658-9</x:t>
   </x:si>
   <x:si>
     <x:t>271</x:t>
@@ -502,7 +502,7 @@
     <x:t>Pam Stoltenberg</x:t>
   </x:si>
   <x:si>
-    <x:t>180120573</x:t>
+    <x:t>18.012.057-3</x:t>
   </x:si>
   <x:si>
     <x:t>667</x:t>
@@ -529,7 +529,7 @@
     <x:t>Leona Krajcik</x:t>
   </x:si>
   <x:si>
-    <x:t>242212565</x:t>
+    <x:t>24.221.256-5</x:t>
   </x:si>
   <x:si>
     <x:t>214</x:t>
@@ -544,7 +544,7 @@
     <x:t>Gerardo Bins</x:t>
   </x:si>
   <x:si>
-    <x:t>215368126</x:t>
+    <x:t>21.536.812-6</x:t>
   </x:si>
   <x:si>
     <x:t>946</x:t>
@@ -559,7 +559,7 @@
     <x:t>Maxine Ruecker</x:t>
   </x:si>
   <x:si>
-    <x:t>250077779</x:t>
+    <x:t>25.007.777-9</x:t>
   </x:si>
   <x:si>
     <x:t>27</x:t>
@@ -586,7 +586,7 @@
     <x:t>Sylvester Murray</x:t>
   </x:si>
   <x:si>
-    <x:t>240401875</x:t>
+    <x:t>24.040.187-5</x:t>
   </x:si>
   <x:si>
     <x:t>231</x:t>
@@ -601,7 +601,7 @@
     <x:t>Carla Hayes</x:t>
   </x:si>
   <x:si>
-    <x:t>267869088</x:t>
+    <x:t>26.786.908-8</x:t>
   </x:si>
   <x:si>
     <x:t>96</x:t>
@@ -616,7 +616,7 @@
     <x:t>Adrian Lockman</x:t>
   </x:si>
   <x:si>
-    <x:t>138240582</x:t>
+    <x:t>13.824.058-2</x:t>
   </x:si>
   <x:si>
     <x:t>190</x:t>
@@ -631,7 +631,7 @@
     <x:t>Carlton Fadel</x:t>
   </x:si>
   <x:si>
-    <x:t>263987698</x:t>
+    <x:t>26.398.769-8</x:t>
   </x:si>
   <x:si>
     <x:t>406</x:t>
@@ -652,7 +652,7 @@
     <x:t>Theodore Adams</x:t>
   </x:si>
   <x:si>
-    <x:t>284250384</x:t>
+    <x:t>28.425.038-4</x:t>
   </x:si>
   <x:si>
     <x:t>323</x:t>
@@ -673,7 +673,7 @@
     <x:t>Earl Friesen</x:t>
   </x:si>
   <x:si>
-    <x:t>270041427</x:t>
+    <x:t>27.004.142-7</x:t>
   </x:si>
   <x:si>
     <x:t>725</x:t>
@@ -688,7 +688,7 @@
     <x:t>Billie Kling</x:t>
   </x:si>
   <x:si>
-    <x:t>162066937</x:t>
+    <x:t>16.206.693-7</x:t>
   </x:si>
   <x:si>
     <x:t>826</x:t>
@@ -703,7 +703,7 @@
     <x:t>Timothy Roberts</x:t>
   </x:si>
   <x:si>
-    <x:t>251872580</x:t>
+    <x:t>25.187.258-0</x:t>
   </x:si>
   <x:si>
     <x:t>230</x:t>
@@ -724,7 +724,7 @@
     <x:t>Elsa Kozey</x:t>
   </x:si>
   <x:si>
-    <x:t>139773991</x:t>
+    <x:t>13.977.399-1</x:t>
   </x:si>
   <x:si>
     <x:t>643</x:t>
@@ -745,7 +745,7 @@
     <x:t>Kristine McLaughlin</x:t>
   </x:si>
   <x:si>
-    <x:t>156848040</x:t>
+    <x:t>15.684.804-0</x:t>
   </x:si>
   <x:si>
     <x:t>310</x:t>
@@ -766,7 +766,7 @@
     <x:t>Leland Barrows</x:t>
   </x:si>
   <x:si>
-    <x:t>229571808</x:t>
+    <x:t>22.957.180-8</x:t>
   </x:si>
   <x:si>
     <x:t>95</x:t>
@@ -787,7 +787,7 @@
     <x:t>Elijah Wuckert</x:t>
   </x:si>
   <x:si>
-    <x:t>270943633</x:t>
+    <x:t>27.094.363-3</x:t>
   </x:si>
   <x:si>
     <x:t>277</x:t>
@@ -808,7 +808,7 @@
     <x:t>Myron Jenkins</x:t>
   </x:si>
   <x:si>
-    <x:t>161794866</x:t>
+    <x:t>16.179.486-6</x:t>
   </x:si>
   <x:si>
     <x:t>800</x:t>
@@ -823,7 +823,7 @@
     <x:t>Tommy Ullrich</x:t>
   </x:si>
   <x:si>
-    <x:t>258188448</x:t>
+    <x:t>25.818.844-8</x:t>
   </x:si>
   <x:si>
     <x:t>692</x:t>
@@ -838,7 +838,7 @@
     <x:t>Sonia Bartell</x:t>
   </x:si>
   <x:si>
-    <x:t>246384190</x:t>
+    <x:t>24.638.419-0</x:t>
   </x:si>
   <x:si>
     <x:t>79</x:t>
@@ -847,7 +847,7 @@
     <x:t>Alex Mayer</x:t>
   </x:si>
   <x:si>
-    <x:t>194861171</x:t>
+    <x:t>19.486.117-1</x:t>
   </x:si>
   <x:si>
     <x:t>255</x:t>
@@ -874,7 +874,7 @@
     <x:t>Hugh Lueilwitz</x:t>
   </x:si>
   <x:si>
-    <x:t>193092689</x:t>
+    <x:t>19.309.268-9</x:t>
   </x:si>
   <x:si>
     <x:t>1</x:t>
@@ -901,7 +901,7 @@
     <x:t>Roman Bosco</x:t>
   </x:si>
   <x:si>
-    <x:t>254791913</x:t>
+    <x:t>25.479.191-3</x:t>
   </x:si>
   <x:si>
     <x:t>610</x:t>
@@ -916,7 +916,7 @@
     <x:t>Lora Cartwright</x:t>
   </x:si>
   <x:si>
-    <x:t>190839457</x:t>
+    <x:t>19.083.945-7</x:t>
   </x:si>
   <x:si>
     <x:t>84</x:t>
@@ -925,7 +925,7 @@
     <x:t>Alberto Schuppe</x:t>
   </x:si>
   <x:si>
-    <x:t>155566652</x:t>
+    <x:t>15.556.665-2</x:t>
   </x:si>
   <x:si>
     <x:t>320</x:t>
@@ -946,7 +946,7 @@
     <x:t>Jamie Mayert</x:t>
   </x:si>
   <x:si>
-    <x:t>289492432</x:t>
+    <x:t>28.949.243-2</x:t>
   </x:si>
   <x:si>
     <x:t>418</x:t>
@@ -973,7 +973,7 @@
     <x:t>Adrienne Sauer</x:t>
   </x:si>
   <x:si>
-    <x:t>160158125</x:t>
+    <x:t>16.015.812-5</x:t>
   </x:si>
   <x:si>
     <x:t>591</x:t>
@@ -988,7 +988,7 @@
     <x:t>Willie Lakin</x:t>
   </x:si>
   <x:si>
-    <x:t>220421307</x:t>
+    <x:t>22.042.130-7</x:t>
   </x:si>
   <x:si>
     <x:t>179</x:t>
@@ -1009,7 +1009,7 @@
     <x:t>Diana Mayer</x:t>
   </x:si>
   <x:si>
-    <x:t>268173907</x:t>
+    <x:t>26.817.390-7</x:t>
   </x:si>
   <x:si>
     <x:t>327</x:t>
@@ -1024,7 +1024,7 @@
     <x:t>Shelia Swift</x:t>
   </x:si>
   <x:si>
-    <x:t>271963247</x:t>
+    <x:t>27.196.324-7</x:t>
   </x:si>
   <x:si>
     <x:t>790</x:t>
@@ -1039,7 +1039,7 @@
     <x:t>Omar Wisozk</x:t>
   </x:si>
   <x:si>
-    <x:t>279078030</x:t>
+    <x:t>27.907.803-0</x:t>
   </x:si>
   <x:si>
     <x:t>941</x:t>
@@ -1051,7 +1051,7 @@
     <x:t>Claude Kreiger</x:t>
   </x:si>
   <x:si>
-    <x:t>154084816</x:t>
+    <x:t>15.408.481-6</x:t>
   </x:si>
   <x:si>
     <x:t>708</x:t>
@@ -1063,7 +1063,7 @@
     <x:t>Sara Pouros</x:t>
   </x:si>
   <x:si>
-    <x:t>127314610</x:t>
+    <x:t>12.731.461-0</x:t>
   </x:si>
   <x:si>
     <x:t>184</x:t>
@@ -1084,7 +1084,7 @@
     <x:t>Nelson Rath</x:t>
   </x:si>
   <x:si>
-    <x:t>160336023</x:t>
+    <x:t>16.033.602-3</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
@@ -1111,7 +1111,7 @@
     <x:t>Jan Grimes</x:t>
   </x:si>
   <x:si>
-    <x:t>191227722</x:t>
+    <x:t>19.122.772-2</x:t>
   </x:si>
   <x:si>
     <x:t>103</x:t>
@@ -1129,7 +1129,7 @@
     <x:t>Patricia Gislason</x:t>
   </x:si>
   <x:si>
-    <x:t>254848990</x:t>
+    <x:t>25.484.899-0</x:t>
   </x:si>
   <x:si>
     <x:t>243</x:t>
@@ -1144,7 +1144,7 @@
     <x:t>Virgil Kulas</x:t>
   </x:si>
   <x:si>
-    <x:t>253943850</x:t>
+    <x:t>25.394.385-0</x:t>
   </x:si>
   <x:si>
     <x:t>207</x:t>
@@ -1156,7 +1156,7 @@
     <x:t>Rosemary Schuster</x:t>
   </x:si>
   <x:si>
-    <x:t>118292315</x:t>
+    <x:t>11.829.231-5</x:t>
   </x:si>
   <x:si>
     <x:t>368</x:t>
@@ -1171,7 +1171,7 @@
     <x:t>Floyd Powlowski</x:t>
   </x:si>
   <x:si>
-    <x:t>145269388</x:t>
+    <x:t>14.526.938-8</x:t>
   </x:si>
   <x:si>
     <x:t>338</x:t>
@@ -1192,7 +1192,7 @@
     <x:t>Joy Schmeler</x:t>
   </x:si>
   <x:si>
-    <x:t>100154530</x:t>
+    <x:t>10.015.453-0</x:t>
   </x:si>
   <x:si>
     <x:t>106</x:t>
@@ -1201,7 +1201,7 @@
     <x:t>Marlene Wunsch</x:t>
   </x:si>
   <x:si>
-    <x:t>228998646</x:t>
+    <x:t>22.899.864-6</x:t>
   </x:si>
   <x:si>
     <x:t>118</x:t>
@@ -1216,7 +1216,7 @@
     <x:t>Elijah Pacocha</x:t>
   </x:si>
   <x:si>
-    <x:t>222800429</x:t>
+    <x:t>22.280.042-9</x:t>
   </x:si>
   <x:si>
     <x:t>122</x:t>
@@ -1231,7 +1231,7 @@
     <x:t>Jackie Keeling</x:t>
   </x:si>
   <x:si>
-    <x:t>173435262</x:t>
+    <x:t>17.343.526-2</x:t>
   </x:si>
   <x:si>
     <x:t>150</x:t>
@@ -1258,7 +1258,7 @@
     <x:t>Vickie McDermott</x:t>
   </x:si>
   <x:si>
-    <x:t>266519180</x:t>
+    <x:t>26.651.918-0</x:t>
   </x:si>
   <x:si>
     <x:t>46</x:t>
@@ -1273,7 +1273,7 @@
     <x:t>Lee Thiel</x:t>
   </x:si>
   <x:si>
-    <x:t>139243747</x:t>
+    <x:t>13.924.374-7</x:t>
   </x:si>
   <x:si>
     <x:t>67</x:t>
@@ -1288,7 +1288,7 @@
     <x:t>Emma Ziemann</x:t>
   </x:si>
   <x:si>
-    <x:t>224704630</x:t>
+    <x:t>22.470.463-0</x:t>
   </x:si>
   <x:si>
     <x:t>430</x:t>
@@ -1303,7 +1303,7 @@
     <x:t>Marc Walter</x:t>
   </x:si>
   <x:si>
-    <x:t>268010013</x:t>
+    <x:t>26.801.001-3</x:t>
   </x:si>
   <x:si>
     <x:t>578</x:t>
@@ -1318,7 +1318,7 @@
     <x:t>Ivan Torphy</x:t>
   </x:si>
   <x:si>
-    <x:t>148973469</x:t>
+    <x:t>14.897.346-9</x:t>
   </x:si>
   <x:si>
     <x:t>157</x:t>
@@ -1333,7 +1333,7 @@
     <x:t>Henry Romaguera</x:t>
   </x:si>
   <x:si>
-    <x:t>219085315</x:t>
+    <x:t>21.908.531-5</x:t>
   </x:si>
   <x:si>
     <x:t>371</x:t>
@@ -1348,7 +1348,7 @@
     <x:t>Christy Russel</x:t>
   </x:si>
   <x:si>
-    <x:t>227136535</x:t>
+    <x:t>22.713.653-5</x:t>
   </x:si>
   <x:si>
     <x:t>236</x:t>
@@ -1363,7 +1363,7 @@
     <x:t>Betty Erdman</x:t>
   </x:si>
   <x:si>
-    <x:t>232966796</x:t>
+    <x:t>23.296.679-6</x:t>
   </x:si>
   <x:si>
     <x:t>631</x:t>
@@ -1384,7 +1384,7 @@
     <x:t>Rex Ortiz</x:t>
   </x:si>
   <x:si>
-    <x:t>235191248</x:t>
+    <x:t>23.519.124-8</x:t>
   </x:si>
   <x:si>
     <x:t>870</x:t>
@@ -1399,7 +1399,7 @@
     <x:t>Ernesto McCullough</x:t>
   </x:si>
   <x:si>
-    <x:t>283323566</x:t>
+    <x:t>28.332.356-6</x:t>
   </x:si>
   <x:si>
     <x:t>818</x:t>
@@ -1414,7 +1414,7 @@
     <x:t>Alfredo Runolfsdottir</x:t>
   </x:si>
   <x:si>
-    <x:t>181817667</x:t>
+    <x:t>18.181.766-7</x:t>
   </x:si>
   <x:si>
     <x:t>306</x:t>
@@ -1429,7 +1429,7 @@
     <x:t>Cathy Hilll</x:t>
   </x:si>
   <x:si>
-    <x:t>278856071</x:t>
+    <x:t>27.885.607-1</x:t>
   </x:si>
   <x:si>
     <x:t>130</x:t>
@@ -1438,7 +1438,7 @@
     <x:t>Joseph Terry</x:t>
   </x:si>
   <x:si>
-    <x:t>123855675</x:t>
+    <x:t>12.385.567-5</x:t>
   </x:si>
   <x:si>
     <x:t>395</x:t>
@@ -1453,7 +1453,7 @@
     <x:t>Kimberly Ruecker</x:t>
   </x:si>
   <x:si>
-    <x:t>191957640</x:t>
+    <x:t>19.195.764-0</x:t>
   </x:si>
   <x:si>
     <x:t>426</x:t>
@@ -1474,7 +1474,7 @@
     <x:t>Carroll Jerde</x:t>
   </x:si>
   <x:si>
-    <x:t>275514757</x:t>
+    <x:t>27.551.475-7</x:t>
   </x:si>
   <x:si>
     <x:t>196</x:t>
@@ -1489,7 +1489,7 @@
     <x:t>Jeannie Runolfsdottir</x:t>
   </x:si>
   <x:si>
-    <x:t>255319886</x:t>
+    <x:t>25.531.988-6</x:t>
   </x:si>
   <x:si>
     <x:t>784</x:t>
@@ -1504,7 +1504,7 @@
     <x:t>Preston Fisher</x:t>
   </x:si>
   <x:si>
-    <x:t>117025259</x:t>
+    <x:t>11.702.525-9</x:t>
   </x:si>
   <x:si>
     <x:t>525</x:t>
@@ -1525,7 +1525,7 @@
     <x:t>Austin Graham</x:t>
   </x:si>
   <x:si>
-    <x:t>201436493</x:t>
+    <x:t>20.143.649-3</x:t>
   </x:si>
   <x:si>
     <x:t>393</x:t>
@@ -1540,7 +1540,7 @@
     <x:t>Whitney Johns</x:t>
   </x:si>
   <x:si>
-    <x:t>282515992</x:t>
+    <x:t>28.251.599-2</x:t>
   </x:si>
   <x:si>
     <x:t>189</x:t>
@@ -1555,7 +1555,7 @@
     <x:t>Lola Beier</x:t>
   </x:si>
   <x:si>
-    <x:t>292044836</x:t>
+    <x:t>29.204.483-6</x:t>
   </x:si>
   <x:si>
     <x:t>414</x:t>
@@ -1570,7 +1570,7 @@
     <x:t>Terence Jaskolski</x:t>
   </x:si>
   <x:si>
-    <x:t>231763549</x:t>
+    <x:t>23.176.354-9</x:t>
   </x:si>
   <x:si>
     <x:t>279</x:t>
@@ -1585,7 +1585,7 @@
     <x:t>Edmond Stracke</x:t>
   </x:si>
   <x:si>
-    <x:t>126005532</x:t>
+    <x:t>12.600.553-2</x:t>
   </x:si>
   <x:si>
     <x:t>743</x:t>
@@ -1600,7 +1600,7 @@
     <x:t>Lula Harris</x:t>
   </x:si>
   <x:si>
-    <x:t>168199076</x:t>
+    <x:t>16.819.907-6</x:t>
   </x:si>
   <x:si>
     <x:t>129</x:t>
@@ -1615,7 +1615,7 @@
     <x:t>Christine Farrell</x:t>
   </x:si>
   <x:si>
-    <x:t>202320847</x:t>
+    <x:t>20.232.084-7</x:t>
   </x:si>
   <x:si>
     <x:t>491</x:t>
@@ -1630,7 +1630,7 @@
     <x:t>Anne Keebler</x:t>
   </x:si>
   <x:si>
-    <x:t>160768918</x:t>
+    <x:t>16.076.891-8</x:t>
   </x:si>
   <x:si>
     <x:t>963</x:t>
@@ -1645,7 +1645,7 @@
     <x:t>Percy Swaniawski</x:t>
   </x:si>
   <x:si>
-    <x:t>143186922</x:t>
+    <x:t>14.318.692-2</x:t>
   </x:si>
   <x:si>
     <x:t>876</x:t>
@@ -1660,7 +1660,7 @@
     <x:t>Drew O'Conner</x:t>
   </x:si>
   <x:si>
-    <x:t>222475730</x:t>
+    <x:t>22.247.573-0</x:t>
   </x:si>
   <x:si>
     <x:t>989</x:t>
@@ -1675,7 +1675,7 @@
     <x:t>Jordan Kertzmann</x:t>
   </x:si>
   <x:si>
-    <x:t>179233238</x:t>
+    <x:t>17.923.323-8</x:t>
   </x:si>
   <x:si>
     <x:t>188</x:t>
@@ -1690,7 +1690,7 @@
     <x:t>Katrina Mueller</x:t>
   </x:si>
   <x:si>
-    <x:t>103811605</x:t>
+    <x:t>10.381.160-5</x:t>
   </x:si>
   <x:si>
     <x:t>296</x:t>
@@ -1708,7 +1708,7 @@
     <x:t>Kelli DuBuque</x:t>
   </x:si>
   <x:si>
-    <x:t>131628216</x:t>
+    <x:t>13.162.821-6</x:t>
   </x:si>
   <x:si>
     <x:t>239</x:t>
@@ -1729,7 +1729,7 @@
     <x:t>Kristy Rice</x:t>
   </x:si>
   <x:si>
-    <x:t>215841778</x:t>
+    <x:t>21.584.177-8</x:t>
   </x:si>
   <x:si>
     <x:t>925</x:t>
@@ -1744,7 +1744,7 @@
     <x:t>Lauren Balistreri</x:t>
   </x:si>
   <x:si>
-    <x:t>225450860</x:t>
+    <x:t>22.545.086-0</x:t>
   </x:si>
   <x:si>
     <x:t>659</x:t>
@@ -1759,7 +1759,7 @@
     <x:t>Eddie Nienow</x:t>
   </x:si>
   <x:si>
-    <x:t>210216476</x:t>
+    <x:t>21.021.647-6</x:t>
   </x:si>
   <x:si>
     <x:t>447</x:t>
@@ -1798,7 +1798,7 @@
     <x:t>Jill Bauch</x:t>
   </x:si>
   <x:si>
-    <x:t>260479586</x:t>
+    <x:t>26.047.958-6</x:t>
   </x:si>
   <x:si>
     <x:t>684</x:t>
@@ -1813,7 +1813,7 @@
     <x:t>Jeffrey Glover</x:t>
   </x:si>
   <x:si>
-    <x:t>211753599</x:t>
+    <x:t>21.175.359-9</x:t>
   </x:si>
   <x:si>
     <x:t>Bednar - Nitzsche</x:t>
@@ -1831,7 +1831,7 @@
     <x:t>Gertrude Paucek</x:t>
   </x:si>
   <x:si>
-    <x:t>276386485</x:t>
+    <x:t>27.638.648-5</x:t>
   </x:si>
   <x:si>
     <x:t>735</x:t>
@@ -1852,7 +1852,7 @@
     <x:t>Wilma Tromp</x:t>
   </x:si>
   <x:si>
-    <x:t>101239149</x:t>
+    <x:t>10.123.914-9</x:t>
   </x:si>
   <x:si>
     <x:t>173</x:t>
@@ -1867,7 +1867,7 @@
     <x:t>Juanita Stanton</x:t>
   </x:si>
   <x:si>
-    <x:t>247705411</x:t>
+    <x:t>24.770.541-1</x:t>
   </x:si>
   <x:si>
     <x:t>Farrell LLC</x:t>
@@ -1879,7 +1879,7 @@
     <x:t>Rita Jakubowski</x:t>
   </x:si>
   <x:si>
-    <x:t>259747157</x:t>
+    <x:t>25.974.715-7</x:t>
   </x:si>
   <x:si>
     <x:t>93</x:t>
@@ -1900,7 +1900,7 @@
     <x:t>Ronald Tremblay</x:t>
   </x:si>
   <x:si>
-    <x:t>293517584</x:t>
+    <x:t>29.351.758-4</x:t>
   </x:si>
   <x:si>
     <x:t>974</x:t>
@@ -1915,7 +1915,7 @@
     <x:t>Amelia Wilderman</x:t>
   </x:si>
   <x:si>
-    <x:t>237630516</x:t>
+    <x:t>23.763.051-6</x:t>
   </x:si>
   <x:si>
     <x:t>608</x:t>
@@ -1930,7 +1930,7 @@
     <x:t>Cathy Bauch</x:t>
   </x:si>
   <x:si>
-    <x:t>165130083</x:t>
+    <x:t>16.513.008-3</x:t>
   </x:si>
   <x:si>
     <x:t>282</x:t>
@@ -1948,7 +1948,7 @@
     <x:t>Camille Jacobson</x:t>
   </x:si>
   <x:si>
-    <x:t>207297649</x:t>
+    <x:t>20.729.764-9</x:t>
   </x:si>
   <x:si>
     <x:t>Farrell, Beahan and Stamm</x:t>
@@ -1966,7 +1966,7 @@
     <x:t>Sue Windler</x:t>
   </x:si>
   <x:si>
-    <x:t>242093310</x:t>
+    <x:t>24.209.331-0</x:t>
   </x:si>
   <x:si>
     <x:t>541</x:t>
@@ -1981,7 +1981,7 @@
     <x:t>Rogelio Botsford</x:t>
   </x:si>
   <x:si>
-    <x:t>211718483</x:t>
+    <x:t>21.171.848-3</x:t>
   </x:si>
   <x:si>
     <x:t>321</x:t>
@@ -1993,7 +1993,7 @@
     <x:t>Minnie Barton</x:t>
   </x:si>
   <x:si>
-    <x:t>264322002</x:t>
+    <x:t>26.432.200-2</x:t>
   </x:si>
   <x:si>
     <x:t>180</x:t>
@@ -2002,7 +2002,7 @@
     <x:t>Della Feest</x:t>
   </x:si>
   <x:si>
-    <x:t>221471812</x:t>
+    <x:t>22.147.181-2</x:t>
   </x:si>
   <x:si>
     <x:t>201</x:t>
@@ -2017,7 +2017,7 @@
     <x:t>Wesley Padberg</x:t>
   </x:si>
   <x:si>
-    <x:t>219395365</x:t>
+    <x:t>21.939.536-5</x:t>
   </x:si>
   <x:si>
     <x:t>542</x:t>
@@ -2032,7 +2032,7 @@
     <x:t>Mamie White</x:t>
   </x:si>
   <x:si>
-    <x:t>247950572</x:t>
+    <x:t>24.795.057-2</x:t>
   </x:si>
   <x:si>
     <x:t>613</x:t>
@@ -2047,7 +2047,7 @@
     <x:t>Travis Hettinger</x:t>
   </x:si>
   <x:si>
-    <x:t>172985447</x:t>
+    <x:t>17.298.544-7</x:t>
   </x:si>
   <x:si>
     <x:t>492</x:t>
@@ -2062,7 +2062,7 @@
     <x:t>Alonzo Predovic</x:t>
   </x:si>
   <x:si>
-    <x:t>275037002</x:t>
+    <x:t>27.503.700-2</x:t>
   </x:si>
   <x:si>
     <x:t>852</x:t>
@@ -2077,7 +2077,7 @@
     <x:t>Archie McCullough</x:t>
   </x:si>
   <x:si>
-    <x:t>164054260</x:t>
+    <x:t>16.405.426-0</x:t>
   </x:si>
   <x:si>
     <x:t>444</x:t>
@@ -2089,7 +2089,7 @@
     <x:t>Anna Berge</x:t>
   </x:si>
   <x:si>
-    <x:t>166518271</x:t>
+    <x:t>16.651.827-1</x:t>
   </x:si>
   <x:si>
     <x:t>Konopelski Group</x:t>
@@ -2101,7 +2101,7 @@
     <x:t>Ora Mann</x:t>
   </x:si>
   <x:si>
-    <x:t>160296315</x:t>
+    <x:t>16.029.631-5</x:t>
   </x:si>
   <x:si>
     <x:t>284</x:t>
@@ -2116,7 +2116,7 @@
     <x:t>Jeffery Schulist</x:t>
   </x:si>
   <x:si>
-    <x:t>197995730</x:t>
+    <x:t>19.799.573-0</x:t>
   </x:si>
   <x:si>
     <x:t>733</x:t>
@@ -2131,7 +2131,7 @@
     <x:t>Kimberly Hilll</x:t>
   </x:si>
   <x:si>
-    <x:t>132616963</x:t>
+    <x:t>13.261.696-3</x:t>
   </x:si>
   <x:si>
     <x:t>616</x:t>
@@ -2146,7 +2146,7 @@
     <x:t>Francis Sporer</x:t>
   </x:si>
   <x:si>
-    <x:t>188185461</x:t>
+    <x:t>18.818.546-1</x:t>
   </x:si>
   <x:si>
     <x:t>759</x:t>
@@ -2161,7 +2161,7 @@
     <x:t>Becky Konopelski</x:t>
   </x:si>
   <x:si>
-    <x:t>230655319</x:t>
+    <x:t>23.065.531-9</x:t>
   </x:si>
   <x:si>
     <x:t>291</x:t>
@@ -2188,7 +2188,7 @@
     <x:t>Wendy VonRueden</x:t>
   </x:si>
   <x:si>
-    <x:t>112382614</x:t>
+    <x:t>11.238.261-4</x:t>
   </x:si>
   <x:si>
     <x:t>516</x:t>
@@ -2203,7 +2203,7 @@
     <x:t>Stacy Bradtke</x:t>
   </x:si>
   <x:si>
-    <x:t>219849536</x:t>
+    <x:t>21.984.953-6</x:t>
   </x:si>
   <x:si>
     <x:t>Rowe Group</x:t>
@@ -2221,7 +2221,7 @@
     <x:t>Kenneth Krajcik</x:t>
   </x:si>
   <x:si>
-    <x:t>215485351</x:t>
+    <x:t>21.548.535-1</x:t>
   </x:si>
   <x:si>
     <x:t>305</x:t>
@@ -2233,7 +2233,7 @@
     <x:t>Suzanne Medhurst</x:t>
   </x:si>
   <x:si>
-    <x:t>170246450</x:t>
+    <x:t>17.024.645-0</x:t>
   </x:si>
   <x:si>
     <x:t>721</x:t>
@@ -2248,7 +2248,7 @@
     <x:t>Rickey Huels</x:t>
   </x:si>
   <x:si>
-    <x:t>254984681</x:t>
+    <x:t>25.498.468-1</x:t>
   </x:si>
   <x:si>
     <x:t>Muller - Hahn</x:t>
@@ -2260,7 +2260,7 @@
     <x:t>Geraldine Conn</x:t>
   </x:si>
   <x:si>
-    <x:t>283344032</x:t>
+    <x:t>28.334.403-2</x:t>
   </x:si>
   <x:si>
     <x:t>89</x:t>
@@ -2275,7 +2275,7 @@
     <x:t>Patti Sporer</x:t>
   </x:si>
   <x:si>
-    <x:t>271180692</x:t>
+    <x:t>27.118.069-2</x:t>
   </x:si>
   <x:si>
     <x:t>588</x:t>
@@ -2287,7 +2287,7 @@
     <x:t>Rolando Rowe</x:t>
   </x:si>
   <x:si>
-    <x:t>194026469</x:t>
+    <x:t>19.402.646-9</x:t>
   </x:si>
   <x:si>
     <x:t>636</x:t>
@@ -2302,7 +2302,7 @@
     <x:t>Olga McKenzie</x:t>
   </x:si>
   <x:si>
-    <x:t>194352145</x:t>
+    <x:t>19.435.214-5</x:t>
   </x:si>
   <x:si>
     <x:t>703</x:t>
@@ -2317,7 +2317,7 @@
     <x:t>Frank Ondricka</x:t>
   </x:si>
   <x:si>
-    <x:t>249397536</x:t>
+    <x:t>24.939.753-6</x:t>
   </x:si>
   <x:si>
     <x:t>210</x:t>
@@ -2326,7 +2326,7 @@
     <x:t>Sarah Bahringer</x:t>
   </x:si>
   <x:si>
-    <x:t>285031805</x:t>
+    <x:t>28.503.180-5</x:t>
   </x:si>
   <x:si>
     <x:t>793</x:t>
@@ -2341,7 +2341,7 @@
     <x:t>Bryan Rodriguez</x:t>
   </x:si>
   <x:si>
-    <x:t>256382182</x:t>
+    <x:t>25.638.218-2</x:t>
   </x:si>
   <x:si>
     <x:t>354</x:t>
@@ -2356,7 +2356,7 @@
     <x:t>Theodore Torp</x:t>
   </x:si>
   <x:si>
-    <x:t>166183555</x:t>
+    <x:t>16.618.355-5</x:t>
   </x:si>
   <x:si>
     <x:t>996</x:t>
@@ -2371,7 +2371,7 @@
     <x:t>Donnie Gorczany</x:t>
   </x:si>
   <x:si>
-    <x:t>205041949</x:t>
+    <x:t>20.504.194-9</x:t>
   </x:si>
   <x:si>
     <x:t>781</x:t>
@@ -2386,7 +2386,7 @@
     <x:t>Curtis White</x:t>
   </x:si>
   <x:si>
-    <x:t>113708351</x:t>
+    <x:t>11.370.835-1</x:t>
   </x:si>
   <x:si>
     <x:t>Howell, Nolan and Gibson</x:t>
@@ -2404,7 +2404,7 @@
     <x:t>Noah Rolfson</x:t>
   </x:si>
   <x:si>
-    <x:t>235834475</x:t>
+    <x:t>23.583.447-5</x:t>
   </x:si>
   <x:si>
     <x:t>814</x:t>
@@ -2419,7 +2419,7 @@
     <x:t>Joey Watsica</x:t>
   </x:si>
   <x:si>
-    <x:t>187715700</x:t>
+    <x:t>18.771.570-0</x:t>
   </x:si>
   <x:si>
     <x:t>871</x:t>
@@ -2434,7 +2434,7 @@
     <x:t>Jonathon Boyer</x:t>
   </x:si>
   <x:si>
-    <x:t>114718687</x:t>
+    <x:t>11.471.868-7</x:t>
   </x:si>
   <x:si>
     <x:t>51</x:t>
@@ -2449,7 +2449,7 @@
     <x:t>Carol Emard</x:t>
   </x:si>
   <x:si>
-    <x:t>276345533</x:t>
+    <x:t>27.634.553-3</x:t>
   </x:si>
   <x:si>
     <x:t>663</x:t>
@@ -2464,7 +2464,7 @@
     <x:t>Kristi Kutch</x:t>
   </x:si>
   <x:si>
-    <x:t>190136006</x:t>
+    <x:t>19.013.600-6</x:t>
   </x:si>
   <x:si>
     <x:t>Johnson, Rowe and Howell</x:t>
@@ -2476,7 +2476,7 @@
     <x:t>Derek Pagac</x:t>
   </x:si>
   <x:si>
-    <x:t>279414145</x:t>
+    <x:t>27.941.414-5</x:t>
   </x:si>
   <x:si>
     <x:t>Gleichner Inc</x:t>
@@ -2506,7 +2506,7 @@
     <x:t>Herbert Jones</x:t>
   </x:si>
   <x:si>
-    <x:t>248116380</x:t>
+    <x:t>24.811.638-0</x:t>
   </x:si>
   <x:si>
     <x:t>Ruecker, Lebsack and Bosco</x:t>
@@ -2515,7 +2515,7 @@
     <x:t>Sheila Boehm</x:t>
   </x:si>
   <x:si>
-    <x:t>251744671</x:t>
+    <x:t>25.174.467-1</x:t>
   </x:si>
   <x:si>
     <x:t>569</x:t>
@@ -2527,7 +2527,7 @@
     <x:t>Evan Hilpert</x:t>
   </x:si>
   <x:si>
-    <x:t>292681569</x:t>
+    <x:t>29.268.156-9</x:t>
   </x:si>
   <x:si>
     <x:t>232</x:t>
@@ -2536,7 +2536,7 @@
     <x:t>Rudy Mraz</x:t>
   </x:si>
   <x:si>
-    <x:t>103840850</x:t>
+    <x:t>10.384.085-0</x:t>
   </x:si>
   <x:si>
     <x:t>19</x:t>
@@ -2557,7 +2557,7 @@
     <x:t>Francisco Bruen</x:t>
   </x:si>
   <x:si>
-    <x:t>142054534</x:t>
+    <x:t>14.205.453-4</x:t>
   </x:si>
   <x:si>
     <x:t>234</x:t>
@@ -2566,7 +2566,7 @@
     <x:t>Luke Hartmann</x:t>
   </x:si>
   <x:si>
-    <x:t>137620187</x:t>
+    <x:t>13.762.018-7</x:t>
   </x:si>
   <x:si>
     <x:t>52</x:t>
@@ -2584,7 +2584,7 @@
     <x:t>Brian Kshlerin</x:t>
   </x:si>
   <x:si>
-    <x:t>229657648</x:t>
+    <x:t>22.965.764-8</x:t>
   </x:si>
   <x:si>
     <x:t>Windler - Osinski</x:t>
@@ -2593,7 +2593,7 @@
     <x:t>Heather Beahan</x:t>
   </x:si>
   <x:si>
-    <x:t>107999390</x:t>
+    <x:t>10.799.939-0</x:t>
   </x:si>
   <x:si>
     <x:t>238</x:t>
@@ -2602,7 +2602,7 @@
     <x:t>Colin Gaylord</x:t>
   </x:si>
   <x:si>
-    <x:t>265442630</x:t>
+    <x:t>26.544.263-0</x:t>
   </x:si>
   <x:si>
     <x:t>762</x:t>
@@ -2617,7 +2617,7 @@
     <x:t>Darren Walter</x:t>
   </x:si>
   <x:si>
-    <x:t>238476472</x:t>
+    <x:t>23.847.647-2</x:t>
   </x:si>
   <x:si>
     <x:t>962</x:t>
@@ -2632,7 +2632,7 @@
     <x:t>Sylvia Wilderman</x:t>
   </x:si>
   <x:si>
-    <x:t>258500786</x:t>
+    <x:t>25.850.078-6</x:t>
   </x:si>
   <x:si>
     <x:t>43</x:t>
@@ -2644,7 +2644,7 @@
     <x:t>Cristina Zboncak</x:t>
   </x:si>
   <x:si>
-    <x:t>176335862</x:t>
+    <x:t>17.633.586-2</x:t>
   </x:si>
   <x:si>
     <x:t>204</x:t>
@@ -2659,7 +2659,7 @@
     <x:t>Dominick Graham</x:t>
   </x:si>
   <x:si>
-    <x:t>257909010</x:t>
+    <x:t>25.790.901-0</x:t>
   </x:si>
   <x:si>
     <x:t>175</x:t>
@@ -2680,7 +2680,7 @@
     <x:t>Wayne Keeling</x:t>
   </x:si>
   <x:si>
-    <x:t>187229988</x:t>
+    <x:t>18.722.998-8</x:t>
   </x:si>
   <x:si>
     <x:t>314</x:t>
@@ -2695,7 +2695,7 @@
     <x:t>Ross Fahey</x:t>
   </x:si>
   <x:si>
-    <x:t>154119008</x:t>
+    <x:t>15.411.900-8</x:t>
   </x:si>
   <x:si>
     <x:t>Carroll, Mante and Nitzsche</x:t>
@@ -2713,7 +2713,7 @@
     <x:t>Angel Hudson</x:t>
   </x:si>
   <x:si>
-    <x:t>133304540</x:t>
+    <x:t>13.330.454-0</x:t>
   </x:si>
   <x:si>
     <x:t>896</x:t>
@@ -2728,7 +2728,7 @@
     <x:t>Rosemary Nolan</x:t>
   </x:si>
   <x:si>
-    <x:t>275219321</x:t>
+    <x:t>27.521.932-1</x:t>
   </x:si>
   <x:si>
     <x:t>87</x:t>
@@ -2743,7 +2743,7 @@
     <x:t>Charlotte Kozey</x:t>
   </x:si>
   <x:si>
-    <x:t>140359281</x:t>
+    <x:t>14.035.928-1</x:t>
   </x:si>
   <x:si>
     <x:t>904</x:t>
@@ -2755,7 +2755,7 @@
     <x:t>Carlton Kerluke</x:t>
   </x:si>
   <x:si>
-    <x:t>202249050</x:t>
+    <x:t>20.224.905-0</x:t>
   </x:si>
   <x:si>
     <x:t>Cummerata and Sons</x:t>
@@ -2773,7 +2773,7 @@
     <x:t>Bradley Jerde</x:t>
   </x:si>
   <x:si>
-    <x:t>257559370</x:t>
+    <x:t>25.755.937-0</x:t>
   </x:si>
   <x:si>
     <x:t>Rempel Group</x:t>
@@ -2791,7 +2791,7 @@
     <x:t>Linda Rippin</x:t>
   </x:si>
   <x:si>
-    <x:t>295648511</x:t>
+    <x:t>29.564.851-1</x:t>
   </x:si>
   <x:si>
     <x:t>751</x:t>
@@ -2806,7 +2806,7 @@
     <x:t>Emmett Dare</x:t>
   </x:si>
   <x:si>
-    <x:t>287548694</x:t>
+    <x:t>28.754.869-4</x:t>
   </x:si>
   <x:si>
     <x:t>McKenzie - Crooks</x:t>
@@ -2818,7 +2818,7 @@
     <x:t>Jan Casper</x:t>
   </x:si>
   <x:si>
-    <x:t>218641222</x:t>
+    <x:t>21.864.122-2</x:t>
   </x:si>
   <x:si>
     <x:t>378</x:t>
@@ -2833,7 +2833,7 @@
     <x:t>Rick Orn</x:t>
   </x:si>
   <x:si>
-    <x:t>290497388</x:t>
+    <x:t>29.049.738-8</x:t>
   </x:si>
   <x:si>
     <x:t>Upton Group</x:t>
@@ -2845,7 +2845,7 @@
     <x:t>Cecil Lang</x:t>
   </x:si>
   <x:si>
-    <x:t>189587300</x:t>
+    <x:t>18.958.730-0</x:t>
   </x:si>
   <x:si>
     <x:t>459</x:t>
@@ -2860,7 +2860,7 @@
     <x:t>Diane Boyle</x:t>
   </x:si>
   <x:si>
-    <x:t>182441881</x:t>
+    <x:t>18.244.188-1</x:t>
   </x:si>
   <x:si>
     <x:t>971</x:t>
@@ -2875,7 +2875,7 @@
     <x:t>Lorene Goodwin</x:t>
   </x:si>
   <x:si>
-    <x:t>151442215</x:t>
+    <x:t>15.144.221-5</x:t>
   </x:si>
   <x:si>
     <x:t>358</x:t>
@@ -2890,7 +2890,7 @@
     <x:t>Olga Gislason</x:t>
   </x:si>
   <x:si>
-    <x:t>299884317</x:t>
+    <x:t>29.988.431-7</x:t>
   </x:si>
   <x:si>
     <x:t>Witting - Bins</x:t>
@@ -2902,7 +2902,7 @@
     <x:t>Nathan Kertzmann</x:t>
   </x:si>
   <x:si>
-    <x:t>123065038</x:t>
+    <x:t>12.306.503-8</x:t>
   </x:si>
   <x:si>
     <x:t>750</x:t>
@@ -2914,7 +2914,7 @@
     <x:t>Cathy Hessel</x:t>
   </x:si>
   <x:si>
-    <x:t>266989390</x:t>
+    <x:t>26.698.939-0</x:t>
   </x:si>
   <x:si>
     <x:t>739</x:t>
@@ -2941,7 +2941,7 @@
     <x:t>Miranda Lehner</x:t>
   </x:si>
   <x:si>
-    <x:t>168072335</x:t>
+    <x:t>16.807.233-5</x:t>
   </x:si>
   <x:si>
     <x:t>889</x:t>
@@ -2956,7 +2956,7 @@
     <x:t>Maryann Monahan</x:t>
   </x:si>
   <x:si>
-    <x:t>259036200</x:t>
+    <x:t>25.903.620-0</x:t>
   </x:si>
   <x:si>
     <x:t>803</x:t>
@@ -2968,7 +2968,7 @@
     <x:t>Mae Heaney</x:t>
   </x:si>
   <x:si>
-    <x:t>293684871</x:t>
+    <x:t>29.368.487-1</x:t>
   </x:si>
   <x:si>
     <x:t>450</x:t>
@@ -2989,7 +2989,7 @@
     <x:t>Willie Doyle</x:t>
   </x:si>
   <x:si>
-    <x:t>284161500</x:t>
+    <x:t>28.416.150-0</x:t>
   </x:si>
   <x:si>
     <x:t>348</x:t>
@@ -3010,7 +3010,7 @@
     <x:t>Gordon Schamberger</x:t>
   </x:si>
   <x:si>
-    <x:t>273814010</x:t>
+    <x:t>27.381.401-0</x:t>
   </x:si>
   <x:si>
     <x:t>433</x:t>
@@ -3022,7 +3022,7 @@
     <x:t>Lydia Anderson</x:t>
   </x:si>
   <x:si>
-    <x:t>139488839</x:t>
+    <x:t>13.948.883-9</x:t>
   </x:si>
   <x:si>
     <x:t>Funk Group</x:t>
@@ -3034,7 +3034,7 @@
     <x:t>Jacob Nader</x:t>
   </x:si>
   <x:si>
-    <x:t>236769073</x:t>
+    <x:t>23.676.907-3</x:t>
   </x:si>
   <x:si>
     <x:t>785</x:t>
@@ -3049,7 +3049,7 @@
     <x:t>Shaun Larkin</x:t>
   </x:si>
   <x:si>
-    <x:t>272534315</x:t>
+    <x:t>27.253.431-5</x:t>
   </x:si>
   <x:si>
     <x:t>Baumbach LLC</x:t>
@@ -3061,7 +3061,7 @@
     <x:t>Jamie Hartmann</x:t>
   </x:si>
   <x:si>
-    <x:t>163013586</x:t>
+    <x:t>16.301.358-6</x:t>
   </x:si>
   <x:si>
     <x:t>Predovic - Ward</x:t>
@@ -3073,7 +3073,7 @@
     <x:t>Edward Cronin</x:t>
   </x:si>
   <x:si>
-    <x:t>214429342</x:t>
+    <x:t>21.442.934-2</x:t>
   </x:si>
   <x:si>
     <x:t>289</x:t>
@@ -3082,7 +3082,7 @@
     <x:t>Jake Medhurst</x:t>
   </x:si>
   <x:si>
-    <x:t>155762559</x:t>
+    <x:t>15.576.255-9</x:t>
   </x:si>
   <x:si>
     <x:t>70</x:t>
@@ -3100,7 +3100,7 @@
     <x:t>Carmen Lindgren</x:t>
   </x:si>
   <x:si>
-    <x:t>277664373</x:t>
+    <x:t>27.766.437-3</x:t>
   </x:si>
   <x:si>
     <x:t>126</x:t>
@@ -3121,7 +3121,7 @@
     <x:t>Marlene Bahringer</x:t>
   </x:si>
   <x:si>
-    <x:t>125604440</x:t>
+    <x:t>12.560.444-0</x:t>
   </x:si>
   <x:si>
     <x:t>Herman - Morar</x:t>
@@ -3133,7 +3133,7 @@
     <x:t>Boyd Williamson</x:t>
   </x:si>
   <x:si>
-    <x:t>294571000</x:t>
+    <x:t>29.457.100-0</x:t>
   </x:si>
   <x:si>
     <x:t>791</x:t>
@@ -3154,7 +3154,7 @@
     <x:t>Daisy Baumbach</x:t>
   </x:si>
   <x:si>
-    <x:t>223450235</x:t>
+    <x:t>22.345.023-5</x:t>
   </x:si>
   <x:si>
     <x:t>174</x:t>
@@ -3172,7 +3172,7 @@
     <x:t>Patrick Parker</x:t>
   </x:si>
   <x:si>
-    <x:t>228397561</x:t>
+    <x:t>22.839.756-1</x:t>
   </x:si>
   <x:si>
     <x:t>635</x:t>
@@ -3187,7 +3187,7 @@
     <x:t>Emma Hirthe</x:t>
   </x:si>
   <x:si>
-    <x:t>103348980</x:t>
+    <x:t>10.334.898-0</x:t>
   </x:si>
   <x:si>
     <x:t>298</x:t>
@@ -3196,7 +3196,7 @@
     <x:t>Wallace Swaniawski</x:t>
   </x:si>
   <x:si>
-    <x:t>179846698</x:t>
+    <x:t>17.984.669-8</x:t>
   </x:si>
   <x:si>
     <x:t>646</x:t>
@@ -3211,7 +3211,7 @@
     <x:t>Woodrow Klein</x:t>
   </x:si>
   <x:si>
-    <x:t>189620749</x:t>
+    <x:t>18.962.074-9</x:t>
   </x:si>
   <x:si>
     <x:t>303</x:t>
@@ -3220,7 +3220,7 @@
     <x:t>Jeffery Schamberger</x:t>
   </x:si>
   <x:si>
-    <x:t>103012869</x:t>
+    <x:t>10.301.286-9</x:t>
   </x:si>
   <x:si>
     <x:t>Block, Cremin and Ritchie</x:t>
@@ -3232,7 +3232,7 @@
     <x:t>Darlene Wintheiser</x:t>
   </x:si>
   <x:si>
-    <x:t>193832674</x:t>
+    <x:t>19.383.267-4</x:t>
   </x:si>
   <x:si>
     <x:t>396</x:t>
@@ -3247,7 +3247,7 @@
     <x:t>Peter Wolf</x:t>
   </x:si>
   <x:si>
-    <x:t>166067490</x:t>
+    <x:t>16.606.749-0</x:t>
   </x:si>
   <x:si>
     <x:t>309</x:t>
@@ -3256,7 +3256,7 @@
     <x:t>Rosemarie Mante</x:t>
   </x:si>
   <x:si>
-    <x:t>198262280</x:t>
+    <x:t>19.826.228-0</x:t>
   </x:si>
   <x:si>
     <x:t>813</x:t>
@@ -3271,7 +3271,7 @@
     <x:t>Patricia Reichert</x:t>
   </x:si>
   <x:si>
-    <x:t>225267047</x:t>
+    <x:t>22.526.704-7</x:t>
   </x:si>
   <x:si>
     <x:t>872</x:t>
@@ -3283,7 +3283,7 @@
     <x:t>Jesus Bogan</x:t>
   </x:si>
   <x:si>
-    <x:t>261912070</x:t>
+    <x:t>26.191.207-0</x:t>
   </x:si>
   <x:si>
     <x:t>15</x:t>
@@ -3298,7 +3298,7 @@
     <x:t>Robyn Herman</x:t>
   </x:si>
   <x:si>
-    <x:t>134163478</x:t>
+    <x:t>13.416.347-8</x:t>
   </x:si>
   <x:si>
     <x:t>Nikolaus Group</x:t>
@@ -3310,7 +3310,7 @@
     <x:t>Latoya Kuphal</x:t>
   </x:si>
   <x:si>
-    <x:t>202736059</x:t>
+    <x:t>20.273.605-9</x:t>
   </x:si>
   <x:si>
     <x:t>Marquardt, Zulauf and Streich</x:t>
@@ -3334,7 +3334,7 @@
     <x:t>Felix Effertz</x:t>
   </x:si>
   <x:si>
-    <x:t>193608405</x:t>
+    <x:t>19.360.840-5</x:t>
   </x:si>
   <x:si>
     <x:t>Crona Inc</x:t>
@@ -3361,13 +3361,13 @@
     <x:t>Wm Stokes</x:t>
   </x:si>
   <x:si>
-    <x:t>175891257</x:t>
+    <x:t>17.589.125-7</x:t>
   </x:si>
   <x:si>
     <x:t>Roberto Donnelly</x:t>
   </x:si>
   <x:si>
-    <x:t>174956045</x:t>
+    <x:t>17.495.604-5</x:t>
   </x:si>
   <x:si>
     <x:t>670</x:t>
@@ -3379,7 +3379,7 @@
     <x:t>Shane Walker</x:t>
   </x:si>
   <x:si>
-    <x:t>278068278</x:t>
+    <x:t>27.806.827-8</x:t>
   </x:si>
   <x:si>
     <x:t>611</x:t>
@@ -3391,7 +3391,7 @@
     <x:t>Faith Lowe</x:t>
   </x:si>
   <x:si>
-    <x:t>114746230</x:t>
+    <x:t>11.474.623-0</x:t>
   </x:si>
   <x:si>
     <x:t>583</x:t>
@@ -3406,7 +3406,7 @@
     <x:t>Alberta Fritsch</x:t>
   </x:si>
   <x:si>
-    <x:t>230093248</x:t>
+    <x:t>23.009.324-8</x:t>
   </x:si>
   <x:si>
     <x:t>976</x:t>
@@ -3421,7 +3421,7 @@
     <x:t>Lorenzo Bogan</x:t>
   </x:si>
   <x:si>
-    <x:t>215613694</x:t>
+    <x:t>21.561.369-4</x:t>
   </x:si>
   <x:si>
     <x:t>330</x:t>
@@ -3430,7 +3430,7 @@
     <x:t>Albert Kassulke</x:t>
   </x:si>
   <x:si>
-    <x:t>242370390</x:t>
+    <x:t>24.237.039-0</x:t>
   </x:si>
   <x:si>
     <x:t>522</x:t>
@@ -3445,7 +3445,7 @@
     <x:t>Brendan Daugherty</x:t>
   </x:si>
   <x:si>
-    <x:t>270395628</x:t>
+    <x:t>27.039.562-8</x:t>
   </x:si>
   <x:si>
     <x:t>335</x:t>
@@ -3454,7 +3454,7 @@
     <x:t>Joshua Sawayn</x:t>
   </x:si>
   <x:si>
-    <x:t>211685550</x:t>
+    <x:t>21.168.555-0</x:t>
   </x:si>
   <x:si>
     <x:t>MacGyver, Mitchell and Hills</x:t>
@@ -3475,13 +3475,13 @@
     <x:t>Lyle Fay</x:t>
   </x:si>
   <x:si>
-    <x:t>239719085</x:t>
+    <x:t>23.971.908-5</x:t>
   </x:si>
   <x:si>
     <x:t>Ronald Stehr</x:t>
   </x:si>
   <x:si>
-    <x:t>137162600</x:t>
+    <x:t>13.716.260-0</x:t>
   </x:si>
   <x:si>
     <x:t>140</x:t>
@@ -3502,13 +3502,13 @@
     <x:t>April Kirlin</x:t>
   </x:si>
   <x:si>
-    <x:t>117843466</x:t>
+    <x:t>11.784.346-6</x:t>
   </x:si>
   <x:si>
     <x:t>Sonja Schinner</x:t>
   </x:si>
   <x:si>
-    <x:t>290346665</x:t>
+    <x:t>29.034.666-5</x:t>
   </x:si>
   <x:si>
     <x:t>346</x:t>
@@ -3517,7 +3517,7 @@
     <x:t>Tammy VonRueden</x:t>
   </x:si>
   <x:si>
-    <x:t>255169868</x:t>
+    <x:t>25.516.986-8</x:t>
   </x:si>
   <x:si>
     <x:t>632</x:t>
@@ -3529,7 +3529,7 @@
     <x:t>Willie Trantow</x:t>
   </x:si>
   <x:si>
-    <x:t>226572676</x:t>
+    <x:t>22.657.267-6</x:t>
   </x:si>
   <x:si>
     <x:t>597</x:t>
@@ -3544,7 +3544,7 @@
     <x:t>Evelyn Watsica</x:t>
   </x:si>
   <x:si>
-    <x:t>195456041</x:t>
+    <x:t>19.545.604-1</x:t>
   </x:si>
   <x:si>
     <x:t>938</x:t>
@@ -3559,7 +3559,7 @@
     <x:t>Guillermo Jacobs</x:t>
   </x:si>
   <x:si>
-    <x:t>230921442</x:t>
+    <x:t>23.092.144-2</x:t>
   </x:si>
   <x:si>
     <x:t>952</x:t>
@@ -3571,7 +3571,7 @@
     <x:t>Delbert Lockman</x:t>
   </x:si>
   <x:si>
-    <x:t>171942442</x:t>
+    <x:t>17.194.244-2</x:t>
   </x:si>
   <x:si>
     <x:t>Ruecker - Hintz</x:t>
@@ -3586,7 +3586,7 @@
     <x:t>James Nienow</x:t>
   </x:si>
   <x:si>
-    <x:t>253658314</x:t>
+    <x:t>25.365.831-4</x:t>
   </x:si>
   <x:si>
     <x:t>356</x:t>
@@ -3595,7 +3595,7 @@
     <x:t>Guy Ratke</x:t>
   </x:si>
   <x:si>
-    <x:t>100006094</x:t>
+    <x:t>10.000.609-4</x:t>
   </x:si>
   <x:si>
     <x:t>609</x:t>
@@ -3616,7 +3616,7 @@
     <x:t>Marty Rolfson</x:t>
   </x:si>
   <x:si>
-    <x:t>260121347</x:t>
+    <x:t>26.012.134-7</x:t>
   </x:si>
   <x:si>
     <x:t>982</x:t>
@@ -3628,7 +3628,7 @@
     <x:t>Kristin Nitzsche</x:t>
   </x:si>
   <x:si>
-    <x:t>156706563</x:t>
+    <x:t>15.670.656-3</x:t>
   </x:si>
   <x:si>
     <x:t>Von Inc</x:t>
@@ -3649,7 +3649,7 @@
     <x:t>Damon Harris</x:t>
   </x:si>
   <x:si>
-    <x:t>282229345</x:t>
+    <x:t>28.222.934-5</x:t>
   </x:si>
   <x:si>
     <x:t>Leannon - Toy</x:t>
@@ -3667,7 +3667,7 @@
     <x:t>William Walsh</x:t>
   </x:si>
   <x:si>
-    <x:t>213428156</x:t>
+    <x:t>21.342.815-6</x:t>
   </x:si>
   <x:si>
     <x:t>727</x:t>
@@ -3682,7 +3682,7 @@
     <x:t>Benjamin Bartoletti</x:t>
   </x:si>
   <x:si>
-    <x:t>139286179</x:t>
+    <x:t>13.928.617-9</x:t>
   </x:si>
   <x:si>
     <x:t>362</x:t>
@@ -3691,13 +3691,13 @@
     <x:t>Felipe Blick</x:t>
   </x:si>
   <x:si>
-    <x:t>211776548</x:t>
+    <x:t>21.177.654-8</x:t>
   </x:si>
   <x:si>
     <x:t>Tanya Bailey</x:t>
   </x:si>
   <x:si>
-    <x:t>265516293</x:t>
+    <x:t>26.551.629-3</x:t>
   </x:si>
   <x:si>
     <x:t>Rippin - Feest</x:t>
@@ -3709,7 +3709,7 @@
     <x:t>Emmett Toy</x:t>
   </x:si>
   <x:si>
-    <x:t>278228682</x:t>
+    <x:t>27.822.868-2</x:t>
   </x:si>
   <x:si>
     <x:t>932</x:t>
@@ -3721,7 +3721,7 @@
     <x:t>Hector Altenwerth</x:t>
   </x:si>
   <x:si>
-    <x:t>248432338</x:t>
+    <x:t>24.843.233-8</x:t>
   </x:si>
   <x:si>
     <x:t>Nitzsche, Hansen and Grady</x:t>
@@ -3739,7 +3739,7 @@
     <x:t>Jaime McDermott</x:t>
   </x:si>
   <x:si>
-    <x:t>297197185</x:t>
+    <x:t>29.719.718-5</x:t>
   </x:si>
   <x:si>
     <x:t>388</x:t>
@@ -3754,7 +3754,7 @@
     <x:t>Gretchen Smith</x:t>
   </x:si>
   <x:si>
-    <x:t>177889888</x:t>
+    <x:t>17.788.988-8</x:t>
   </x:si>
   <x:si>
     <x:t>990</x:t>
@@ -3766,7 +3766,7 @@
     <x:t>Rogelio Abshire</x:t>
   </x:si>
   <x:si>
-    <x:t>230866115</x:t>
+    <x:t>23.086.611-5</x:t>
   </x:si>
   <x:si>
     <x:t>754</x:t>
@@ -3781,7 +3781,7 @@
     <x:t>Margie McClure</x:t>
   </x:si>
   <x:si>
-    <x:t>142391786</x:t>
+    <x:t>14.239.178-6</x:t>
   </x:si>
   <x:si>
     <x:t>342</x:t>
@@ -3796,7 +3796,7 @@
     <x:t>Fredrick Halvorson</x:t>
   </x:si>
   <x:si>
-    <x:t>230889972</x:t>
+    <x:t>23.088.997-2</x:t>
   </x:si>
   <x:si>
     <x:t>757</x:t>
@@ -3820,19 +3820,19 @@
     <x:t>Gabriel Armstrong</x:t>
   </x:si>
   <x:si>
-    <x:t>191973750</x:t>
+    <x:t>19.197.375-0</x:t>
   </x:si>
   <x:si>
     <x:t>Cassandra Hickle</x:t>
   </x:si>
   <x:si>
-    <x:t>257833013</x:t>
+    <x:t>25.783.301-3</x:t>
   </x:si>
   <x:si>
     <x:t>Samuel Beer</x:t>
   </x:si>
   <x:si>
-    <x:t>242385265</x:t>
+    <x:t>24.238.526-5</x:t>
   </x:si>
   <x:si>
     <x:t>766</x:t>
@@ -3850,7 +3850,7 @@
     <x:t>Whitney Bergstrom</x:t>
   </x:si>
   <x:si>
-    <x:t>275879305</x:t>
+    <x:t>27.587.930-5</x:t>
   </x:si>
   <x:si>
     <x:t>999</x:t>
@@ -3865,7 +3865,7 @@
     <x:t>Julian Lemke</x:t>
   </x:si>
   <x:si>
-    <x:t>138174768</x:t>
+    <x:t>13.817.476-8</x:t>
   </x:si>
   <x:si>
     <x:t>429</x:t>
@@ -3892,7 +3892,7 @@
     <x:t>Johnathan Johns</x:t>
   </x:si>
   <x:si>
-    <x:t>225603900</x:t>
+    <x:t>22.560.390-0</x:t>
   </x:si>
   <x:si>
     <x:t>Hoeger, Muller and Brown</x:t>
@@ -3904,7 +3904,7 @@
     <x:t>Emily Hilll</x:t>
   </x:si>
   <x:si>
-    <x:t>155216406</x:t>
+    <x:t>15.521.640-6</x:t>
   </x:si>
   <x:si>
     <x:t>Krajcik - Krajcik</x:t>
@@ -3913,7 +3913,7 @@
     <x:t>Wilson Collier</x:t>
   </x:si>
   <x:si>
-    <x:t>190456728</x:t>
+    <x:t>19.045.672-8</x:t>
   </x:si>
   <x:si>
     <x:t>333</x:t>
@@ -3925,13 +3925,13 @@
     <x:t>Carrie Botsford</x:t>
   </x:si>
   <x:si>
-    <x:t>124721311</x:t>
+    <x:t>12.472.131-1</x:t>
   </x:si>
   <x:si>
     <x:t>Penny Heaney</x:t>
   </x:si>
   <x:si>
-    <x:t>253824184</x:t>
+    <x:t>25.382.418-4</x:t>
   </x:si>
   <x:si>
     <x:t>451</x:t>
@@ -3943,7 +3943,7 @@
     <x:t>Dexter Purdy</x:t>
   </x:si>
   <x:si>
-    <x:t>112073735</x:t>
+    <x:t>11.207.373-5</x:t>
   </x:si>
   <x:si>
     <x:t>676</x:t>
@@ -3958,7 +3958,7 @@
     <x:t>Ruby Lesch</x:t>
   </x:si>
   <x:si>
-    <x:t>202450813</x:t>
+    <x:t>20.245.081-3</x:t>
   </x:si>
   <x:si>
     <x:t>Herzog - Schamberger</x:t>
@@ -3967,7 +3967,7 @@
     <x:t>Ted Rogahn</x:t>
   </x:si>
   <x:si>
-    <x:t>211131911</x:t>
+    <x:t>21.113.191-1</x:t>
   </x:si>
   <x:si>
     <x:t>650</x:t>
@@ -3979,7 +3979,7 @@
     <x:t>Jill Reinger</x:t>
   </x:si>
   <x:si>
-    <x:t>111706645</x:t>
+    <x:t>11.170.664-5</x:t>
   </x:si>
   <x:si>
     <x:t>403</x:t>
@@ -3988,7 +3988,7 @@
     <x:t>Melissa Stokes</x:t>
   </x:si>
   <x:si>
-    <x:t>185010920</x:t>
+    <x:t>18.501.092-0</x:t>
   </x:si>
   <x:si>
     <x:t>404</x:t>
@@ -3997,7 +3997,7 @@
     <x:t>Kathleen Hoppe</x:t>
   </x:si>
   <x:si>
-    <x:t>219436541</x:t>
+    <x:t>21.943.654-1</x:t>
   </x:si>
   <x:si>
     <x:t>407</x:t>
@@ -4006,7 +4006,7 @@
     <x:t>Joan Smitham</x:t>
   </x:si>
   <x:si>
-    <x:t>129176842</x:t>
+    <x:t>12.917.684-2</x:t>
   </x:si>
   <x:si>
     <x:t>422</x:t>
@@ -4027,7 +4027,7 @@
     <x:t>Donna Bernhard</x:t>
   </x:si>
   <x:si>
-    <x:t>283234032</x:t>
+    <x:t>28.323.403-2</x:t>
   </x:si>
   <x:si>
     <x:t>848</x:t>
@@ -4039,7 +4039,7 @@
     <x:t>Heidi Raynor</x:t>
   </x:si>
   <x:si>
-    <x:t>133011542</x:t>
+    <x:t>13.301.154-2</x:t>
   </x:si>
   <x:si>
     <x:t>700</x:t>
@@ -4054,7 +4054,7 @@
     <x:t>Toni Harris</x:t>
   </x:si>
   <x:si>
-    <x:t>253190525</x:t>
+    <x:t>25.319.052-5</x:t>
   </x:si>
   <x:si>
     <x:t>412</x:t>
@@ -4063,7 +4063,7 @@
     <x:t>Sylvia Altenwerth</x:t>
   </x:si>
   <x:si>
-    <x:t>106893394</x:t>
+    <x:t>10.689.339-4</x:t>
   </x:si>
   <x:si>
     <x:t>855</x:t>
@@ -4081,7 +4081,7 @@
     <x:t>Evelyn Shields</x:t>
   </x:si>
   <x:si>
-    <x:t>291296432</x:t>
+    <x:t>29.129.643-2</x:t>
   </x:si>
   <x:si>
     <x:t>521</x:t>
@@ -4096,7 +4096,7 @@
     <x:t>Joyce Bartell</x:t>
   </x:si>
   <x:si>
-    <x:t>120383993</x:t>
+    <x:t>12.038.399-3</x:t>
   </x:si>
   <x:si>
     <x:t>383</x:t>
@@ -4108,7 +4108,7 @@
     <x:t>Jessie Kulas</x:t>
   </x:si>
   <x:si>
-    <x:t>170486958</x:t>
+    <x:t>17.048.695-8</x:t>
   </x:si>
   <x:si>
     <x:t>501</x:t>
@@ -4126,7 +4126,7 @@
     <x:t>Carlos Beier</x:t>
   </x:si>
   <x:si>
-    <x:t>277463351</x:t>
+    <x:t>27.746.335-1</x:t>
   </x:si>
   <x:si>
     <x:t>417</x:t>
@@ -4144,7 +4144,7 @@
     <x:t>Mary Upton</x:t>
   </x:si>
   <x:si>
-    <x:t>155199978</x:t>
+    <x:t>15.519.997-8</x:t>
   </x:si>
   <x:si>
     <x:t>Considine, White and Gaylord</x:t>
@@ -4174,7 +4174,7 @@
     <x:t>Bridget Feeney</x:t>
   </x:si>
   <x:si>
-    <x:t>280648154</x:t>
+    <x:t>28.064.815-4</x:t>
   </x:si>
   <x:si>
     <x:t>441</x:t>
@@ -4189,7 +4189,7 @@
     <x:t>Mike Buckridge</x:t>
   </x:si>
   <x:si>
-    <x:t>185741703</x:t>
+    <x:t>18.574.170-3</x:t>
   </x:si>
   <x:si>
     <x:t>58</x:t>
@@ -4216,7 +4216,7 @@
     <x:t>Elsa Wyman</x:t>
   </x:si>
   <x:si>
-    <x:t>215468759</x:t>
+    <x:t>21.546.875-9</x:t>
   </x:si>
   <x:si>
     <x:t>842</x:t>
@@ -4231,7 +4231,7 @@
     <x:t>Javier Cole</x:t>
   </x:si>
   <x:si>
-    <x:t>201104024</x:t>
+    <x:t>20.110.402-4</x:t>
   </x:si>
   <x:si>
     <x:t>807</x:t>
@@ -4246,7 +4246,7 @@
     <x:t>Muriel Wisoky</x:t>
   </x:si>
   <x:si>
-    <x:t>147308461</x:t>
+    <x:t>14.730.846-1</x:t>
   </x:si>
   <x:si>
     <x:t>Herman - Walsh</x:t>
@@ -4261,7 +4261,7 @@
     <x:t>Gabriel Franecki</x:t>
   </x:si>
   <x:si>
-    <x:t>194511308</x:t>
+    <x:t>19.451.130-8</x:t>
   </x:si>
   <x:si>
     <x:t>458</x:t>
@@ -4276,7 +4276,7 @@
     <x:t>Marvin Kertzmann</x:t>
   </x:si>
   <x:si>
-    <x:t>270997890</x:t>
+    <x:t>27.099.789-0</x:t>
   </x:si>
   <x:si>
     <x:t>769</x:t>
@@ -4291,7 +4291,7 @@
     <x:t>Wilbur Torphy</x:t>
   </x:si>
   <x:si>
-    <x:t>191072621</x:t>
+    <x:t>19.107.262-1</x:t>
   </x:si>
   <x:si>
     <x:t>440</x:t>
@@ -4300,13 +4300,13 @@
     <x:t>Marion Kassulke</x:t>
   </x:si>
   <x:si>
-    <x:t>169061884</x:t>
+    <x:t>16.906.188-4</x:t>
   </x:si>
   <x:si>
     <x:t>Ignacio Lind</x:t>
   </x:si>
   <x:si>
-    <x:t>126020884</x:t>
+    <x:t>12.602.088-4</x:t>
   </x:si>
   <x:si>
     <x:t>843</x:t>
@@ -4321,7 +4321,7 @@
     <x:t>Jamie Bins</x:t>
   </x:si>
   <x:si>
-    <x:t>275208583</x:t>
+    <x:t>27.520.858-3</x:t>
   </x:si>
   <x:si>
     <x:t>163</x:t>
@@ -4342,7 +4342,7 @@
     <x:t>Glenda Gleason</x:t>
   </x:si>
   <x:si>
-    <x:t>143576151</x:t>
+    <x:t>14.357.615-1</x:t>
   </x:si>
   <x:si>
     <x:t>Beier, Monahan and Ebert</x:t>
@@ -4354,7 +4354,7 @@
     <x:t>Lewis Howe</x:t>
   </x:si>
   <x:si>
-    <x:t>282078703</x:t>
+    <x:t>28.207.870-3</x:t>
   </x:si>
   <x:si>
     <x:t>810</x:t>
@@ -4369,7 +4369,7 @@
     <x:t>Tyler Nolan</x:t>
   </x:si>
   <x:si>
-    <x:t>191336432</x:t>
+    <x:t>19.133.643-2</x:t>
   </x:si>
   <x:si>
     <x:t>668</x:t>
@@ -4381,7 +4381,7 @@
     <x:t>Katrina Kautzer</x:t>
   </x:si>
   <x:si>
-    <x:t>195090527</x:t>
+    <x:t>19.509.052-7</x:t>
   </x:si>
   <x:si>
     <x:t>Reichel - Walter</x:t>
@@ -4393,7 +4393,7 @@
     <x:t>Dianne Padberg</x:t>
   </x:si>
   <x:si>
-    <x:t>143920022</x:t>
+    <x:t>14.392.002-2</x:t>
   </x:si>
   <x:si>
     <x:t>970</x:t>
@@ -4405,7 +4405,7 @@
     <x:t>Dorothy Skiles</x:t>
   </x:si>
   <x:si>
-    <x:t>264944399</x:t>
+    <x:t>26.494.439-9</x:t>
   </x:si>
   <x:si>
     <x:t>543</x:t>
@@ -4420,7 +4420,7 @@
     <x:t>Nathaniel Hirthe</x:t>
   </x:si>
   <x:si>
-    <x:t>116726105</x:t>
+    <x:t>11.672.610-5</x:t>
   </x:si>
   <x:si>
     <x:t>573</x:t>
@@ -4438,7 +4438,7 @@
     <x:t>Oliver Nikolaus</x:t>
   </x:si>
   <x:si>
-    <x:t>271708565</x:t>
+    <x:t>27.170.856-5</x:t>
   </x:si>
   <x:si>
     <x:t>720</x:t>
@@ -4456,7 +4456,7 @@
     <x:t>Amber Monahan</x:t>
   </x:si>
   <x:si>
-    <x:t>269421564</x:t>
+    <x:t>26.942.156-4</x:t>
   </x:si>
   <x:si>
     <x:t>835</x:t>
@@ -4471,7 +4471,7 @@
     <x:t>Grace Little</x:t>
   </x:si>
   <x:si>
-    <x:t>247681750</x:t>
+    <x:t>24.768.175-0</x:t>
   </x:si>
   <x:si>
     <x:t>461</x:t>
@@ -4480,7 +4480,7 @@
     <x:t>Josh Prohaska</x:t>
   </x:si>
   <x:si>
-    <x:t>136732151</x:t>
+    <x:t>13.673.215-1</x:t>
   </x:si>
   <x:si>
     <x:t>125</x:t>
@@ -4495,7 +4495,7 @@
     <x:t>Shawn Metz</x:t>
   </x:si>
   <x:si>
-    <x:t>241698782</x:t>
+    <x:t>24.169.878-2</x:t>
   </x:si>
   <x:si>
     <x:t>Nader, Kuhic and Vandervort</x:t>
@@ -4513,7 +4513,7 @@
     <x:t>Carolyn Bauch</x:t>
   </x:si>
   <x:si>
-    <x:t>202598349</x:t>
+    <x:t>20.259.834-9</x:t>
   </x:si>
   <x:si>
     <x:t>604</x:t>
@@ -4534,7 +4534,7 @@
     <x:t>Henry Cartwright</x:t>
   </x:si>
   <x:si>
-    <x:t>238753042</x:t>
+    <x:t>23.875.304-2</x:t>
   </x:si>
   <x:si>
     <x:t>858</x:t>
@@ -4549,7 +4549,7 @@
     <x:t>Lindsay Reichert</x:t>
   </x:si>
   <x:si>
-    <x:t>110307577</x:t>
+    <x:t>11.030.757-7</x:t>
   </x:si>
   <x:si>
     <x:t>Bins Inc</x:t>
@@ -4567,7 +4567,7 @@
     <x:t>Emmett Lueilwitz</x:t>
   </x:si>
   <x:si>
-    <x:t>208763996</x:t>
+    <x:t>20.876.399-6</x:t>
   </x:si>
   <x:si>
     <x:t>Kreiger - Walsh</x:t>
@@ -4579,7 +4579,7 @@
     <x:t>Erick Heller</x:t>
   </x:si>
   <x:si>
-    <x:t>270204466</x:t>
+    <x:t>27.020.446-6</x:t>
   </x:si>
   <x:si>
     <x:t>Mohr - Swaniawski</x:t>
@@ -4591,13 +4591,13 @@
     <x:t>Homer Rosenbaum</x:t>
   </x:si>
   <x:si>
-    <x:t>171411056</x:t>
+    <x:t>17.141.105-6</x:t>
   </x:si>
   <x:si>
     <x:t>Gabriel Hilll</x:t>
   </x:si>
   <x:si>
-    <x:t>194553841</x:t>
+    <x:t>19.455.384-1</x:t>
   </x:si>
   <x:si>
     <x:t>Mayer - Dietrich</x:t>
@@ -4609,7 +4609,7 @@
     <x:t>Elbert Orn</x:t>
   </x:si>
   <x:si>
-    <x:t>186461534</x:t>
+    <x:t>18.646.153-4</x:t>
   </x:si>
   <x:si>
     <x:t>367</x:t>
@@ -4627,7 +4627,7 @@
     <x:t>Kerry Larkin</x:t>
   </x:si>
   <x:si>
-    <x:t>294274936</x:t>
+    <x:t>29.427.493-6</x:t>
   </x:si>
   <x:si>
     <x:t>294</x:t>
@@ -4645,7 +4645,7 @@
     <x:t>Flora Carroll</x:t>
   </x:si>
   <x:si>
-    <x:t>103221557</x:t>
+    <x:t>10.322.155-7</x:t>
   </x:si>
   <x:si>
     <x:t>671</x:t>
@@ -4660,7 +4660,7 @@
     <x:t>Jimmy Schmidt</x:t>
   </x:si>
   <x:si>
-    <x:t>174671008</x:t>
+    <x:t>17.467.100-8</x:t>
   </x:si>
   <x:si>
     <x:t>78</x:t>
@@ -4672,7 +4672,7 @@
     <x:t>Elmer Kuphal</x:t>
   </x:si>
   <x:si>
-    <x:t>196849640</x:t>
+    <x:t>19.684.964-0</x:t>
   </x:si>
   <x:si>
     <x:t>487</x:t>
@@ -4681,7 +4681,7 @@
     <x:t>Spencer Fritsch</x:t>
   </x:si>
   <x:si>
-    <x:t>236825828</x:t>
+    <x:t>23.682.582-8</x:t>
   </x:si>
   <x:si>
     <x:t>Braun - Okuneva</x:t>
@@ -4693,7 +4693,7 @@
     <x:t>Leah White</x:t>
   </x:si>
   <x:si>
-    <x:t>268979154</x:t>
+    <x:t>26.897.915-4</x:t>
   </x:si>
   <x:si>
     <x:t>490</x:t>
@@ -4702,19 +4702,19 @@
     <x:t>Ira Collins</x:t>
   </x:si>
   <x:si>
-    <x:t>161680461</x:t>
+    <x:t>16.168.046-1</x:t>
   </x:si>
   <x:si>
     <x:t>Agnes Parker</x:t>
   </x:si>
   <x:si>
-    <x:t>239135512</x:t>
+    <x:t>23.913.551-2</x:t>
   </x:si>
   <x:si>
     <x:t>Cecilia Hettinger</x:t>
   </x:si>
   <x:si>
-    <x:t>294804935</x:t>
+    <x:t>29.480.493-5</x:t>
   </x:si>
   <x:si>
     <x:t>495</x:t>
@@ -4723,7 +4723,7 @@
     <x:t>Conrad Koch</x:t>
   </x:si>
   <x:si>
-    <x:t>181932210</x:t>
+    <x:t>18.193.221-0</x:t>
   </x:si>
   <x:si>
     <x:t>496</x:t>
@@ -4732,7 +4732,7 @@
     <x:t>Felicia Cummerata</x:t>
   </x:si>
   <x:si>
-    <x:t>124175732</x:t>
+    <x:t>12.417.573-2</x:t>
   </x:si>
   <x:si>
     <x:t>312</x:t>
@@ -4759,7 +4759,7 @@
     <x:t>Wallace Effertz</x:t>
   </x:si>
   <x:si>
-    <x:t>217534988</x:t>
+    <x:t>21.753.498-8</x:t>
   </x:si>
   <x:si>
     <x:t>Schinner Group</x:t>
@@ -4768,7 +4768,7 @@
     <x:t>Mary Spinka</x:t>
   </x:si>
   <x:si>
-    <x:t>249774623</x:t>
+    <x:t>24.977.462-3</x:t>
   </x:si>
   <x:si>
     <x:t>502</x:t>
@@ -4777,7 +4777,7 @@
     <x:t>Gerard Bins</x:t>
   </x:si>
   <x:si>
-    <x:t>289570956</x:t>
+    <x:t>28.957.095-6</x:t>
   </x:si>
   <x:si>
     <x:t>63</x:t>
@@ -4792,7 +4792,7 @@
     <x:t>Wesley Abbott</x:t>
   </x:si>
   <x:si>
-    <x:t>121516466</x:t>
+    <x:t>12.151.646-6</x:t>
   </x:si>
   <x:si>
     <x:t>Von - Nikolaus</x:t>
@@ -4804,7 +4804,7 @@
     <x:t>Omar Schulist</x:t>
   </x:si>
   <x:si>
-    <x:t>240573749</x:t>
+    <x:t>24.057.374-9</x:t>
   </x:si>
   <x:si>
     <x:t>945</x:t>
@@ -4819,7 +4819,7 @@
     <x:t>Rosie Heidenreich</x:t>
   </x:si>
   <x:si>
-    <x:t>146615654</x:t>
+    <x:t>14.661.565-4</x:t>
   </x:si>
   <x:si>
     <x:t>620</x:t>
@@ -4834,7 +4834,7 @@
     <x:t>Donald Tromp</x:t>
   </x:si>
   <x:si>
-    <x:t>130601683</x:t>
+    <x:t>13.060.168-3</x:t>
   </x:si>
   <x:si>
     <x:t>554</x:t>
@@ -4849,7 +4849,7 @@
     <x:t>Chad Zieme</x:t>
   </x:si>
   <x:si>
-    <x:t>145308456</x:t>
+    <x:t>14.530.845-6</x:t>
   </x:si>
   <x:si>
     <x:t>512</x:t>
@@ -4858,7 +4858,7 @@
     <x:t>Joey Gaylord</x:t>
   </x:si>
   <x:si>
-    <x:t>134900731</x:t>
+    <x:t>13.490.073-1</x:t>
   </x:si>
   <x:si>
     <x:t>Conroy - Macejkovic</x:t>
@@ -4867,7 +4867,7 @@
     <x:t>Winifred Kirlin</x:t>
   </x:si>
   <x:si>
-    <x:t>123595282</x:t>
+    <x:t>12.359.528-2</x:t>
   </x:si>
   <x:si>
     <x:t>334</x:t>
@@ -4888,19 +4888,19 @@
     <x:t>Marlon Nitzsche</x:t>
   </x:si>
   <x:si>
-    <x:t>201889803</x:t>
+    <x:t>20.188.980-3</x:t>
   </x:si>
   <x:si>
     <x:t>Timothy Reilly</x:t>
   </x:si>
   <x:si>
-    <x:t>113783329</x:t>
+    <x:t>11.378.332-9</x:t>
   </x:si>
   <x:si>
     <x:t>Norma Harvey</x:t>
   </x:si>
   <x:si>
-    <x:t>258353694</x:t>
+    <x:t>25.835.369-4</x:t>
   </x:si>
   <x:si>
     <x:t>Gutmann Inc</x:t>
@@ -4912,7 +4912,7 @@
     <x:t>Claudia Olson</x:t>
   </x:si>
   <x:si>
-    <x:t>222165928</x:t>
+    <x:t>22.216.592-8</x:t>
   </x:si>
   <x:si>
     <x:t>977</x:t>
@@ -4927,7 +4927,7 @@
     <x:t>Kay Marquardt</x:t>
   </x:si>
   <x:si>
-    <x:t>239514831</x:t>
+    <x:t>23.951.483-1</x:t>
   </x:si>
   <x:si>
     <x:t>520</x:t>
@@ -4936,7 +4936,7 @@
     <x:t>Rochelle Nader</x:t>
   </x:si>
   <x:si>
-    <x:t>278287506</x:t>
+    <x:t>27.828.750-6</x:t>
   </x:si>
   <x:si>
     <x:t>714</x:t>
@@ -4957,7 +4957,7 @@
     <x:t>Grant Powlowski</x:t>
   </x:si>
   <x:si>
-    <x:t>213456672</x:t>
+    <x:t>21.345.667-2</x:t>
   </x:si>
   <x:si>
     <x:t>384</x:t>
@@ -4972,7 +4972,7 @@
     <x:t>Patsy Lemke</x:t>
   </x:si>
   <x:si>
-    <x:t>147030749</x:t>
+    <x:t>14.703.074-9</x:t>
   </x:si>
   <x:si>
     <x:t>528</x:t>
@@ -4987,7 +4987,7 @@
     <x:t>Dana Metz</x:t>
   </x:si>
   <x:si>
-    <x:t>177527129</x:t>
+    <x:t>17.752.712-9</x:t>
   </x:si>
   <x:si>
     <x:t>353</x:t>
@@ -4999,7 +4999,7 @@
     <x:t>Erick Nicolas</x:t>
   </x:si>
   <x:si>
-    <x:t>262527375</x:t>
+    <x:t>26.252.737-5</x:t>
   </x:si>
   <x:si>
     <x:t>Windler Group</x:t>
@@ -5011,7 +5011,7 @@
     <x:t>Misty Erdman</x:t>
   </x:si>
   <x:si>
-    <x:t>262547163</x:t>
+    <x:t>26.254.716-3</x:t>
   </x:si>
   <x:si>
     <x:t>Kuhlman, Jacobi and Tremblay</x:t>
@@ -5020,7 +5020,7 @@
     <x:t>Edward Bailey</x:t>
   </x:si>
   <x:si>
-    <x:t>188044000</x:t>
+    <x:t>18.804.400-0</x:t>
   </x:si>
   <x:si>
     <x:t>532</x:t>
@@ -5029,7 +5029,7 @@
     <x:t>Jeremy Jones</x:t>
   </x:si>
   <x:si>
-    <x:t>100138985</x:t>
+    <x:t>10.013.898-5</x:t>
   </x:si>
   <x:si>
     <x:t>Bogan - Oberbrunner</x:t>
@@ -5044,7 +5044,7 @@
     <x:t>Elias Hahn</x:t>
   </x:si>
   <x:si>
-    <x:t>229138349</x:t>
+    <x:t>22.913.834-9</x:t>
   </x:si>
   <x:si>
     <x:t>614</x:t>
@@ -5056,7 +5056,7 @@
     <x:t>Randy Smitham</x:t>
   </x:si>
   <x:si>
-    <x:t>249583550</x:t>
+    <x:t>24.958.355-0</x:t>
   </x:si>
   <x:si>
     <x:t>Boehm, Schaden and Medhurst</x:t>
@@ -5068,7 +5068,7 @@
     <x:t>Louise Waters</x:t>
   </x:si>
   <x:si>
-    <x:t>248496522</x:t>
+    <x:t>24.849.652-2</x:t>
   </x:si>
   <x:si>
     <x:t>Pacocha, Wisoky and Simonis</x:t>
@@ -5080,7 +5080,7 @@
     <x:t>Raymond Rosenbaum</x:t>
   </x:si>
   <x:si>
-    <x:t>209258101</x:t>
+    <x:t>20.925.810-1</x:t>
   </x:si>
   <x:si>
     <x:t>553</x:t>
@@ -5095,7 +5095,7 @@
     <x:t>Beulah Kshlerin</x:t>
   </x:si>
   <x:si>
-    <x:t>190389419</x:t>
+    <x:t>19.038.941-9</x:t>
   </x:si>
   <x:si>
     <x:t>O'Reilly, Brekke and Hoppe</x:t>
@@ -5104,7 +5104,7 @@
     <x:t>Vicky Kohler</x:t>
   </x:si>
   <x:si>
-    <x:t>252776755</x:t>
+    <x:t>25.277.675-5</x:t>
   </x:si>
   <x:si>
     <x:t>724</x:t>
@@ -5119,13 +5119,13 @@
     <x:t>Vincent Paucek</x:t>
   </x:si>
   <x:si>
-    <x:t>113564813</x:t>
+    <x:t>11.356.481-3</x:t>
   </x:si>
   <x:si>
     <x:t>Jeff Jakubowski</x:t>
   </x:si>
   <x:si>
-    <x:t>254818196</x:t>
+    <x:t>25.481.819-6</x:t>
   </x:si>
   <x:si>
     <x:t>Feest - Howe</x:t>
@@ -5134,13 +5134,13 @@
     <x:t>Van Robel</x:t>
   </x:si>
   <x:si>
-    <x:t>111220394</x:t>
+    <x:t>11.122.039-4</x:t>
   </x:si>
   <x:si>
     <x:t>Alma Russel</x:t>
   </x:si>
   <x:si>
-    <x:t>131278533</x:t>
+    <x:t>13.127.853-3</x:t>
   </x:si>
   <x:si>
     <x:t>Huel, Block and Legros</x:t>
@@ -5149,7 +5149,7 @@
     <x:t>Beulah Graham</x:t>
   </x:si>
   <x:si>
-    <x:t>146993543</x:t>
+    <x:t>14.699.354-3</x:t>
   </x:si>
   <x:si>
     <x:t>934</x:t>
@@ -5164,7 +5164,7 @@
     <x:t>Larry Will</x:t>
   </x:si>
   <x:si>
-    <x:t>202259102</x:t>
+    <x:t>20.225.910-2</x:t>
   </x:si>
   <x:si>
     <x:t>546</x:t>
@@ -5173,7 +5173,7 @@
     <x:t>Don Beatty</x:t>
   </x:si>
   <x:si>
-    <x:t>225003260</x:t>
+    <x:t>22.500.326-0</x:t>
   </x:si>
   <x:si>
     <x:t>548</x:t>
@@ -5182,7 +5182,7 @@
     <x:t>Edwin Swaniawski</x:t>
   </x:si>
   <x:si>
-    <x:t>140951970</x:t>
+    <x:t>14.095.197-0</x:t>
   </x:si>
   <x:si>
     <x:t>Roob, Beier and Mante</x:t>
@@ -5194,7 +5194,7 @@
     <x:t>Julio Johnson</x:t>
   </x:si>
   <x:si>
-    <x:t>137829973</x:t>
+    <x:t>13.782.997-3</x:t>
   </x:si>
   <x:si>
     <x:t>550</x:t>
@@ -5203,7 +5203,7 @@
     <x:t>Tina Baumbach</x:t>
   </x:si>
   <x:si>
-    <x:t>166359920</x:t>
+    <x:t>16.635.992-0</x:t>
   </x:si>
   <x:si>
     <x:t>551</x:t>
@@ -5212,7 +5212,7 @@
     <x:t>Jim Bauch</x:t>
   </x:si>
   <x:si>
-    <x:t>265682673</x:t>
+    <x:t>26.568.267-3</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
@@ -5227,7 +5227,7 @@
     <x:t>Garry Schuster</x:t>
   </x:si>
   <x:si>
-    <x:t>233209344</x:t>
+    <x:t>23.320.934-4</x:t>
   </x:si>
   <x:si>
     <x:t>955</x:t>
@@ -5239,7 +5239,7 @@
     <x:t>Mark Abbott</x:t>
   </x:si>
   <x:si>
-    <x:t>159748593</x:t>
+    <x:t>15.974.859-3</x:t>
   </x:si>
   <x:si>
     <x:t>505</x:t>
@@ -5254,7 +5254,7 @@
     <x:t>Jonathon Renner</x:t>
   </x:si>
   <x:si>
-    <x:t>156975351</x:t>
+    <x:t>15.697.535-1</x:t>
   </x:si>
   <x:si>
     <x:t>910</x:t>
@@ -5269,7 +5269,7 @@
     <x:t>Maurice Mosciski</x:t>
   </x:si>
   <x:si>
-    <x:t>175508690</x:t>
+    <x:t>17.550.869-0</x:t>
   </x:si>
   <x:si>
     <x:t>Fadel, Russel and Mitchell</x:t>
@@ -5278,7 +5278,7 @@
     <x:t>Danny O'Keefe</x:t>
   </x:si>
   <x:si>
-    <x:t>223147591</x:t>
+    <x:t>22.314.759-1</x:t>
   </x:si>
   <x:si>
     <x:t>Brakus, Rippin and Funk</x:t>
@@ -5290,7 +5290,7 @@
     <x:t>Ada Crooks</x:t>
   </x:si>
   <x:si>
-    <x:t>285698168</x:t>
+    <x:t>28.569.816-8</x:t>
   </x:si>
   <x:si>
     <x:t>617</x:t>
@@ -5305,7 +5305,7 @@
     <x:t>Shannon Cruickshank</x:t>
   </x:si>
   <x:si>
-    <x:t>278458440</x:t>
+    <x:t>27.845.844-0</x:t>
   </x:si>
   <x:si>
     <x:t>920</x:t>
@@ -5317,19 +5317,19 @@
     <x:t>Edmund Lowe</x:t>
   </x:si>
   <x:si>
-    <x:t>287496392</x:t>
+    <x:t>28.749.639-2</x:t>
   </x:si>
   <x:si>
     <x:t>Violet Hane</x:t>
   </x:si>
   <x:si>
-    <x:t>276187431</x:t>
+    <x:t>27.618.743-1</x:t>
   </x:si>
   <x:si>
     <x:t>Molly Zboncak</x:t>
   </x:si>
   <x:si>
-    <x:t>150936028</x:t>
+    <x:t>15.093.602-8</x:t>
   </x:si>
   <x:si>
     <x:t>Marks, Langosh and Hagenes</x:t>
@@ -5341,7 +5341,7 @@
     <x:t>Michele Schmidt</x:t>
   </x:si>
   <x:si>
-    <x:t>238387348</x:t>
+    <x:t>23.838.734-8</x:t>
   </x:si>
   <x:si>
     <x:t>568</x:t>
@@ -5350,13 +5350,13 @@
     <x:t>Deborah Ledner</x:t>
   </x:si>
   <x:si>
-    <x:t>273735020</x:t>
+    <x:t>27.373.502-0</x:t>
   </x:si>
   <x:si>
     <x:t>Angelica Anderson</x:t>
   </x:si>
   <x:si>
-    <x:t>167515527</x:t>
+    <x:t>16.751.552-7</x:t>
   </x:si>
   <x:si>
     <x:t>570</x:t>
@@ -5365,7 +5365,7 @@
     <x:t>Fernando Collins</x:t>
   </x:si>
   <x:si>
-    <x:t>219594430</x:t>
+    <x:t>21.959.443-0</x:t>
   </x:si>
   <x:si>
     <x:t>219</x:t>
@@ -5377,7 +5377,7 @@
     <x:t>Jessie Simonis</x:t>
   </x:si>
   <x:si>
-    <x:t>158920716</x:t>
+    <x:t>15.892.071-6</x:t>
   </x:si>
   <x:si>
     <x:t>Klein Group</x:t>
@@ -5389,7 +5389,7 @@
     <x:t>Alfredo Schulist</x:t>
   </x:si>
   <x:si>
-    <x:t>295967129</x:t>
+    <x:t>29.596.712-9</x:t>
   </x:si>
   <x:si>
     <x:t>665</x:t>
@@ -5404,7 +5404,7 @@
     <x:t>Jody Murray</x:t>
   </x:si>
   <x:si>
-    <x:t>140301070</x:t>
+    <x:t>14.030.107-0</x:t>
   </x:si>
   <x:si>
     <x:t>Schuppe, Davis and Mertz</x:t>
@@ -5422,13 +5422,13 @@
     <x:t>Claire Legros</x:t>
   </x:si>
   <x:si>
-    <x:t>152540288</x:t>
+    <x:t>15.254.028-8</x:t>
   </x:si>
   <x:si>
     <x:t>Brad Jacobs</x:t>
   </x:si>
   <x:si>
-    <x:t>141176571</x:t>
+    <x:t>14.117.657-1</x:t>
   </x:si>
   <x:si>
     <x:t>Rempel - Ferry</x:t>
@@ -5443,13 +5443,13 @@
     <x:t>Sandra Homenick</x:t>
   </x:si>
   <x:si>
-    <x:t>259185086</x:t>
+    <x:t>25.918.508-6</x:t>
   </x:si>
   <x:si>
     <x:t>Rogelio Ullrich</x:t>
   </x:si>
   <x:si>
-    <x:t>236990764</x:t>
+    <x:t>23.699.076-4</x:t>
   </x:si>
   <x:si>
     <x:t>587</x:t>
@@ -5458,7 +5458,7 @@
     <x:t>Jessie Runolfsdottir</x:t>
   </x:si>
   <x:si>
-    <x:t>227458206</x:t>
+    <x:t>22.745.820-6</x:t>
   </x:si>
   <x:si>
     <x:t>420</x:t>
@@ -5470,7 +5470,7 @@
     <x:t>Samuel Mayer</x:t>
   </x:si>
   <x:si>
-    <x:t>156058138</x:t>
+    <x:t>15.605.813-8</x:t>
   </x:si>
   <x:si>
     <x:t>Prohaska LLC</x:t>
@@ -5482,7 +5482,7 @@
     <x:t>Fredrick Conroy</x:t>
   </x:si>
   <x:si>
-    <x:t>146341902</x:t>
+    <x:t>14.634.190-2</x:t>
   </x:si>
   <x:si>
     <x:t>827</x:t>
@@ -5497,7 +5497,7 @@
     <x:t>Carla Tremblay</x:t>
   </x:si>
   <x:si>
-    <x:t>247099864</x:t>
+    <x:t>24.709.986-4</x:t>
   </x:si>
   <x:si>
     <x:t>592</x:t>
@@ -5506,7 +5506,7 @@
     <x:t>Greg Dicki</x:t>
   </x:si>
   <x:si>
-    <x:t>228698979</x:t>
+    <x:t>22.869.897-9</x:t>
   </x:si>
   <x:si>
     <x:t>580</x:t>
@@ -5521,7 +5521,7 @@
     <x:t>Elmer Mohr</x:t>
   </x:si>
   <x:si>
-    <x:t>179085409</x:t>
+    <x:t>17.908.540-9</x:t>
   </x:si>
   <x:si>
     <x:t>398</x:t>
@@ -5536,7 +5536,7 @@
     <x:t>Hilda Ritchie</x:t>
   </x:si>
   <x:si>
-    <x:t>239467108</x:t>
+    <x:t>23.946.710-8</x:t>
   </x:si>
   <x:si>
     <x:t>Torphy, MacGyver and Price</x:t>
@@ -5548,7 +5548,7 @@
     <x:t>Verna Champlin</x:t>
   </x:si>
   <x:si>
-    <x:t>139233407</x:t>
+    <x:t>13.923.340-7</x:t>
   </x:si>
   <x:si>
     <x:t>Towne - Champlin</x:t>
@@ -5560,7 +5560,7 @@
     <x:t>Marcia Christiansen</x:t>
   </x:si>
   <x:si>
-    <x:t>295348305</x:t>
+    <x:t>29.534.830-5</x:t>
   </x:si>
   <x:si>
     <x:t>Brown LLC</x:t>
@@ -5572,7 +5572,7 @@
     <x:t>Brandi Kulas</x:t>
   </x:si>
   <x:si>
-    <x:t>107858401</x:t>
+    <x:t>10.785.840-1</x:t>
   </x:si>
   <x:si>
     <x:t>478</x:t>
@@ -5587,7 +5587,7 @@
     <x:t>Karen Christiansen</x:t>
   </x:si>
   <x:si>
-    <x:t>258072776</x:t>
+    <x:t>25.807.277-6</x:t>
   </x:si>
   <x:si>
     <x:t>411</x:t>
@@ -5599,7 +5599,7 @@
     <x:t>Lula Bogisich</x:t>
   </x:si>
   <x:si>
-    <x:t>149278870</x:t>
+    <x:t>14.927.887-0</x:t>
   </x:si>
   <x:si>
     <x:t>898</x:t>
@@ -5614,7 +5614,7 @@
     <x:t>Faye Herman</x:t>
   </x:si>
   <x:si>
-    <x:t>265575222</x:t>
+    <x:t>26.557.522-2</x:t>
   </x:si>
   <x:si>
     <x:t>288</x:t>
@@ -5626,7 +5626,7 @@
     <x:t>Kayla Wisoky</x:t>
   </x:si>
   <x:si>
-    <x:t>270075143</x:t>
+    <x:t>27.007.514-3</x:t>
   </x:si>
   <x:si>
     <x:t>Barrows, Herman and Rohan</x:t>
@@ -5638,7 +5638,7 @@
     <x:t>Benjamin Beahan</x:t>
   </x:si>
   <x:si>
-    <x:t>209467096</x:t>
+    <x:t>20.946.709-6</x:t>
   </x:si>
   <x:si>
     <x:t>Turcotte, Jaskolski and Murazik</x:t>
@@ -5647,13 +5647,13 @@
     <x:t>Mattie Bednar</x:t>
   </x:si>
   <x:si>
-    <x:t>199297410</x:t>
+    <x:t>19.929.741-0</x:t>
   </x:si>
   <x:si>
     <x:t>Orville Abbott</x:t>
   </x:si>
   <x:si>
-    <x:t>112192416</x:t>
+    <x:t>11.219.241-6</x:t>
   </x:si>
   <x:si>
     <x:t>Jenkins, Batz and Wehner</x:t>
@@ -5662,7 +5662,7 @@
     <x:t>Stella Tillman</x:t>
   </x:si>
   <x:si>
-    <x:t>204819717</x:t>
+    <x:t>20.481.971-7</x:t>
   </x:si>
   <x:si>
     <x:t>612</x:t>
@@ -5671,7 +5671,7 @@
     <x:t>Kevin Heller</x:t>
   </x:si>
   <x:si>
-    <x:t>207791481</x:t>
+    <x:t>20.779.148-1</x:t>
   </x:si>
   <x:si>
     <x:t>Lemke, Leannon and DuBuque</x:t>
@@ -5680,7 +5680,7 @@
     <x:t>Wallace Gleason</x:t>
   </x:si>
   <x:si>
-    <x:t>225820056</x:t>
+    <x:t>22.582.005-6</x:t>
   </x:si>
   <x:si>
     <x:t>44</x:t>
@@ -5692,13 +5692,13 @@
     <x:t>Peggy Schulist</x:t>
   </x:si>
   <x:si>
-    <x:t>123449790</x:t>
+    <x:t>12.344.979-0</x:t>
   </x:si>
   <x:si>
     <x:t>Leona Lind</x:t>
   </x:si>
   <x:si>
-    <x:t>133249379</x:t>
+    <x:t>13.324.937-9</x:t>
   </x:si>
   <x:si>
     <x:t>Flatley and Sons</x:t>
@@ -5710,7 +5710,7 @@
     <x:t>Kelley Klocko</x:t>
   </x:si>
   <x:si>
-    <x:t>101320485</x:t>
+    <x:t>10.132.048-5</x:t>
   </x:si>
   <x:si>
     <x:t>75</x:t>
@@ -5722,7 +5722,7 @@
     <x:t>Betty Dietrich</x:t>
   </x:si>
   <x:si>
-    <x:t>267618093</x:t>
+    <x:t>26.761.809-3</x:t>
   </x:si>
   <x:si>
     <x:t>621</x:t>
@@ -5731,7 +5731,7 @@
     <x:t>June Schaden</x:t>
   </x:si>
   <x:si>
-    <x:t>163476004</x:t>
+    <x:t>16.347.600-4</x:t>
   </x:si>
   <x:si>
     <x:t>919</x:t>
@@ -5746,7 +5746,7 @@
     <x:t>Mario Hahn</x:t>
   </x:si>
   <x:si>
-    <x:t>214096998</x:t>
+    <x:t>21.409.699-8</x:t>
   </x:si>
   <x:si>
     <x:t>Kessler, Raynor and Baumbach</x:t>
@@ -5755,7 +5755,7 @@
     <x:t>Jacquelyn Rutherford</x:t>
   </x:si>
   <x:si>
-    <x:t>162530498</x:t>
+    <x:t>16.253.049-8</x:t>
   </x:si>
   <x:si>
     <x:t>812</x:t>
@@ -5770,7 +5770,7 @@
     <x:t>Delbert Hamill</x:t>
   </x:si>
   <x:si>
-    <x:t>197524621</x:t>
+    <x:t>19.752.462-1</x:t>
   </x:si>
   <x:si>
     <x:t>997</x:t>
@@ -5785,7 +5785,7 @@
     <x:t>Malcolm Rice</x:t>
   </x:si>
   <x:si>
-    <x:t>184491010</x:t>
+    <x:t>18.449.101-0</x:t>
   </x:si>
   <x:si>
     <x:t>Altenwerth - Cruickshank</x:t>
@@ -5800,7 +5800,7 @@
     <x:t>Lorena Hilpert</x:t>
   </x:si>
   <x:si>
-    <x:t>205079768</x:t>
+    <x:t>20.507.976-8</x:t>
   </x:si>
   <x:si>
     <x:t>Schaefer, Becker and Hermann</x:t>
@@ -5812,7 +5812,7 @@
     <x:t>Charlene Aufderhar</x:t>
   </x:si>
   <x:si>
-    <x:t>148393837</x:t>
+    <x:t>14.839.383-7</x:t>
   </x:si>
   <x:si>
     <x:t>787</x:t>
@@ -5833,7 +5833,7 @@
     <x:t>Naomi Mertz</x:t>
   </x:si>
   <x:si>
-    <x:t>217214622</x:t>
+    <x:t>21.721.462-2</x:t>
   </x:si>
   <x:si>
     <x:t>Franecki - Shanahan</x:t>
@@ -5845,19 +5845,19 @@
     <x:t>Glen Farrell</x:t>
   </x:si>
   <x:si>
-    <x:t>195078004</x:t>
+    <x:t>19.507.800-4</x:t>
   </x:si>
   <x:si>
     <x:t>Traci Von</x:t>
   </x:si>
   <x:si>
-    <x:t>232991804</x:t>
+    <x:t>23.299.180-4</x:t>
   </x:si>
   <x:si>
     <x:t>Valerie Barrows</x:t>
   </x:si>
   <x:si>
-    <x:t>110836596</x:t>
+    <x:t>11.083.659-6</x:t>
   </x:si>
   <x:si>
     <x:t>Schamberger Inc</x:t>
@@ -5875,7 +5875,7 @@
     <x:t>Jamie Wiegand</x:t>
   </x:si>
   <x:si>
-    <x:t>135834139</x:t>
+    <x:t>13.583.413-9</x:t>
   </x:si>
   <x:si>
     <x:t>Adams - Douglas</x:t>
@@ -5887,7 +5887,7 @@
     <x:t>Michelle Swaniawski</x:t>
   </x:si>
   <x:si>
-    <x:t>225805448</x:t>
+    <x:t>22.580.544-8</x:t>
   </x:si>
   <x:si>
     <x:t>171</x:t>
@@ -5905,7 +5905,7 @@
     <x:t>Brent McDermott</x:t>
   </x:si>
   <x:si>
-    <x:t>247516287</x:t>
+    <x:t>24.751.628-7</x:t>
   </x:si>
   <x:si>
     <x:t>654</x:t>
@@ -5920,13 +5920,13 @@
     <x:t>Natalie Balistreri</x:t>
   </x:si>
   <x:si>
-    <x:t>248118293</x:t>
+    <x:t>24.811.829-3</x:t>
   </x:si>
   <x:si>
     <x:t>Vera Collier</x:t>
   </x:si>
   <x:si>
-    <x:t>241518822</x:t>
+    <x:t>24.151.882-2</x:t>
   </x:si>
   <x:si>
     <x:t>808</x:t>
@@ -5941,13 +5941,13 @@
     <x:t>Martha Crona</x:t>
   </x:si>
   <x:si>
-    <x:t>185662528</x:t>
+    <x:t>18.566.252-8</x:t>
   </x:si>
   <x:si>
     <x:t>Estelle Hahn</x:t>
   </x:si>
   <x:si>
-    <x:t>160520142</x:t>
+    <x:t>16.052.014-2</x:t>
   </x:si>
   <x:si>
     <x:t>602</x:t>
@@ -5959,7 +5959,7 @@
     <x:t>Justin Murazik</x:t>
   </x:si>
   <x:si>
-    <x:t>292268017</x:t>
+    <x:t>29.226.801-7</x:t>
   </x:si>
   <x:si>
     <x:t>Mann - Orn</x:t>
@@ -5971,7 +5971,7 @@
     <x:t>Stacey McGlynn</x:t>
   </x:si>
   <x:si>
-    <x:t>247394602</x:t>
+    <x:t>24.739.460-2</x:t>
   </x:si>
   <x:si>
     <x:t>657</x:t>
@@ -5980,13 +5980,13 @@
     <x:t>Jake Kling</x:t>
   </x:si>
   <x:si>
-    <x:t>243906846</x:t>
+    <x:t>24.390.684-6</x:t>
   </x:si>
   <x:si>
     <x:t>Donnie Christiansen</x:t>
   </x:si>
   <x:si>
-    <x:t>158332920</x:t>
+    <x:t>15.833.292-0</x:t>
   </x:si>
   <x:si>
     <x:t>660</x:t>
@@ -5995,7 +5995,7 @@
     <x:t>Geneva Swaniawski</x:t>
   </x:si>
   <x:si>
-    <x:t>148046088</x:t>
+    <x:t>14.804.608-8</x:t>
   </x:si>
   <x:si>
     <x:t>506</x:t>
@@ -6007,7 +6007,7 @@
     <x:t>Annie Kutch</x:t>
   </x:si>
   <x:si>
-    <x:t>166651591</x:t>
+    <x:t>16.665.159-1</x:t>
   </x:si>
   <x:si>
     <x:t>662</x:t>
@@ -6016,7 +6016,7 @@
     <x:t>Tina Crooks</x:t>
   </x:si>
   <x:si>
-    <x:t>179697714</x:t>
+    <x:t>17.969.771-4</x:t>
   </x:si>
   <x:si>
     <x:t>922</x:t>
@@ -6028,7 +6028,7 @@
     <x:t>Shannon Wolf</x:t>
   </x:si>
   <x:si>
-    <x:t>244551596</x:t>
+    <x:t>24.455.159-6</x:t>
   </x:si>
   <x:si>
     <x:t>854</x:t>
@@ -6043,7 +6043,7 @@
     <x:t>Megan Wilkinson</x:t>
   </x:si>
   <x:si>
-    <x:t>219525277</x:t>
+    <x:t>21.952.527-7</x:t>
   </x:si>
   <x:si>
     <x:t>666</x:t>
@@ -6052,13 +6052,13 @@
     <x:t>Teresa Murazik</x:t>
   </x:si>
   <x:si>
-    <x:t>240983823</x:t>
+    <x:t>24.098.382-3</x:t>
   </x:si>
   <x:si>
     <x:t>Roosevelt Steuber</x:t>
   </x:si>
   <x:si>
-    <x:t>110497805</x:t>
+    <x:t>11.049.780-5</x:t>
   </x:si>
   <x:si>
     <x:t>Hudson - Fritsch</x:t>
@@ -6070,13 +6070,13 @@
     <x:t>Jonathan Spencer</x:t>
   </x:si>
   <x:si>
-    <x:t>237195690</x:t>
+    <x:t>23.719.569-0</x:t>
   </x:si>
   <x:si>
     <x:t>Louise Pollich</x:t>
   </x:si>
   <x:si>
-    <x:t>278943586</x:t>
+    <x:t>27.894.358-6</x:t>
   </x:si>
   <x:si>
     <x:t>596</x:t>
@@ -6091,7 +6091,7 @@
     <x:t>Jeannette Beahan</x:t>
   </x:si>
   <x:si>
-    <x:t>188183329</x:t>
+    <x:t>18.818.332-9</x:t>
   </x:si>
   <x:si>
     <x:t>134</x:t>
@@ -6112,7 +6112,7 @@
     <x:t>Lisa Stroman</x:t>
   </x:si>
   <x:si>
-    <x:t>289387175</x:t>
+    <x:t>28.938.717-5</x:t>
   </x:si>
   <x:si>
     <x:t>675</x:t>
@@ -6121,7 +6121,7 @@
     <x:t>Salvatore Turcotte</x:t>
   </x:si>
   <x:si>
-    <x:t>209666412</x:t>
+    <x:t>20.966.641-2</x:t>
   </x:si>
   <x:si>
     <x:t>White Inc</x:t>
@@ -6130,7 +6130,7 @@
     <x:t>Evan Gutkowski</x:t>
   </x:si>
   <x:si>
-    <x:t>241148995</x:t>
+    <x:t>24.114.899-5</x:t>
   </x:si>
   <x:si>
     <x:t>679</x:t>
@@ -6139,7 +6139,7 @@
     <x:t>Patti Gerhold</x:t>
   </x:si>
   <x:si>
-    <x:t>152433317</x:t>
+    <x:t>15.243.331-7</x:t>
   </x:si>
   <x:si>
     <x:t>Rempel Inc</x:t>
@@ -6151,7 +6151,7 @@
     <x:t>Lila Emard</x:t>
   </x:si>
   <x:si>
-    <x:t>136873928</x:t>
+    <x:t>13.687.392-8</x:t>
   </x:si>
   <x:si>
     <x:t>681</x:t>
@@ -6160,7 +6160,7 @@
     <x:t>Ronald Zulauf</x:t>
   </x:si>
   <x:si>
-    <x:t>124663664</x:t>
+    <x:t>12.466.366-4</x:t>
   </x:si>
   <x:si>
     <x:t>Mraz, Crooks and Rau</x:t>
@@ -6169,13 +6169,13 @@
     <x:t>Regina Willms</x:t>
   </x:si>
   <x:si>
-    <x:t>228646685</x:t>
+    <x:t>22.864.668-5</x:t>
   </x:si>
   <x:si>
     <x:t>Rene Walsh</x:t>
   </x:si>
   <x:si>
-    <x:t>232993645</x:t>
+    <x:t>23.299.364-5</x:t>
   </x:si>
   <x:si>
     <x:t>688</x:t>
@@ -6184,7 +6184,7 @@
     <x:t>Tyrone Dickens</x:t>
   </x:si>
   <x:si>
-    <x:t>293929815</x:t>
+    <x:t>29.392.981-5</x:t>
   </x:si>
   <x:si>
     <x:t>853</x:t>
@@ -6199,7 +6199,7 @@
     <x:t>Roderick Buckridge</x:t>
   </x:si>
   <x:si>
-    <x:t>259660825</x:t>
+    <x:t>25.966.082-5</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
@@ -6211,7 +6211,7 @@
     <x:t>Beth Gulgowski</x:t>
   </x:si>
   <x:si>
-    <x:t>259310093</x:t>
+    <x:t>25.931.009-3</x:t>
   </x:si>
   <x:si>
     <x:t>Marks, Doyle and Bashirian</x:t>
@@ -6223,7 +6223,7 @@
     <x:t>Kristin Jacobs</x:t>
   </x:si>
   <x:si>
-    <x:t>197657621</x:t>
+    <x:t>19.765.762-1</x:t>
   </x:si>
   <x:si>
     <x:t>Conn LLC</x:t>
@@ -6235,7 +6235,7 @@
     <x:t>Wilson Robel</x:t>
   </x:si>
   <x:si>
-    <x:t>158359771</x:t>
+    <x:t>15.835.977-1</x:t>
   </x:si>
   <x:si>
     <x:t>696</x:t>
@@ -6244,7 +6244,7 @@
     <x:t>Gregory Treutel</x:t>
   </x:si>
   <x:si>
-    <x:t>281963037</x:t>
+    <x:t>28.196.303-7</x:t>
   </x:si>
   <x:si>
     <x:t>30</x:t>
@@ -6256,7 +6256,7 @@
     <x:t>Derek Bogisich</x:t>
   </x:si>
   <x:si>
-    <x:t>180607723</x:t>
+    <x:t>18.060.772-3</x:t>
   </x:si>
   <x:si>
     <x:t>944</x:t>
@@ -6271,7 +6271,7 @@
     <x:t>Edmond Reynolds</x:t>
   </x:si>
   <x:si>
-    <x:t>247225045</x:t>
+    <x:t>24.722.504-5</x:t>
   </x:si>
   <x:si>
     <x:t>874</x:t>
@@ -6286,13 +6286,13 @@
     <x:t>Jeff Herman</x:t>
   </x:si>
   <x:si>
-    <x:t>226858189</x:t>
+    <x:t>22.685.818-9</x:t>
   </x:si>
   <x:si>
     <x:t>Debbie Kessler</x:t>
   </x:si>
   <x:si>
-    <x:t>238540405</x:t>
+    <x:t>23.854.040-5</x:t>
   </x:si>
   <x:si>
     <x:t>701</x:t>
@@ -6301,7 +6301,7 @@
     <x:t>Yvonne Hirthe</x:t>
   </x:si>
   <x:si>
-    <x:t>176993460</x:t>
+    <x:t>17.699.346-0</x:t>
   </x:si>
   <x:si>
     <x:t>702</x:t>
@@ -6310,7 +6310,7 @@
     <x:t>Brenda Barrows</x:t>
   </x:si>
   <x:si>
-    <x:t>257578536</x:t>
+    <x:t>25.757.853-6</x:t>
   </x:si>
   <x:si>
     <x:t>222</x:t>
@@ -6325,7 +6325,7 @@
     <x:t>Terrell Kuhn</x:t>
   </x:si>
   <x:si>
-    <x:t>291633730</x:t>
+    <x:t>29.163.373-0</x:t>
   </x:si>
   <x:si>
     <x:t>707</x:t>
@@ -6334,13 +6334,13 @@
     <x:t>Misty Reichert</x:t>
   </x:si>
   <x:si>
-    <x:t>192364065</x:t>
+    <x:t>19.236.406-5</x:t>
   </x:si>
   <x:si>
     <x:t>Marco Fahey</x:t>
   </x:si>
   <x:si>
-    <x:t>161042651</x:t>
+    <x:t>16.104.265-1</x:t>
   </x:si>
   <x:si>
     <x:t>Kuhlman Group</x:t>
@@ -6358,7 +6358,7 @@
     <x:t>Geneva Mills</x:t>
   </x:si>
   <x:si>
-    <x:t>181261464</x:t>
+    <x:t>18.126.146-4</x:t>
   </x:si>
   <x:si>
     <x:t>820</x:t>
@@ -6370,7 +6370,7 @@
     <x:t>Ernest Connelly</x:t>
   </x:si>
   <x:si>
-    <x:t>295454342</x:t>
+    <x:t>29.545.434-2</x:t>
   </x:si>
   <x:si>
     <x:t>824</x:t>
@@ -6385,7 +6385,7 @@
     <x:t>Yvette Von</x:t>
   </x:si>
   <x:si>
-    <x:t>273726617</x:t>
+    <x:t>27.372.661-7</x:t>
   </x:si>
   <x:si>
     <x:t>Trantow Inc</x:t>
@@ -6394,7 +6394,7 @@
     <x:t>Tamara Daugherty</x:t>
   </x:si>
   <x:si>
-    <x:t>197899250</x:t>
+    <x:t>19.789.925-0</x:t>
   </x:si>
   <x:si>
     <x:t>Kuhlman, Sauer and Kerluke</x:t>
@@ -6406,19 +6406,19 @@
     <x:t>Tyler Hansen</x:t>
   </x:si>
   <x:si>
-    <x:t>196429595</x:t>
+    <x:t>19.642.959-5</x:t>
   </x:si>
   <x:si>
     <x:t>Lamar Maggio</x:t>
   </x:si>
   <x:si>
-    <x:t>284955469</x:t>
+    <x:t>28.495.546-9</x:t>
   </x:si>
   <x:si>
     <x:t>Tasha Mante</x:t>
   </x:si>
   <x:si>
-    <x:t>203628411</x:t>
+    <x:t>20.362.841-1</x:t>
   </x:si>
   <x:si>
     <x:t>992</x:t>
@@ -6433,7 +6433,7 @@
     <x:t>Sara O'Kon</x:t>
   </x:si>
   <x:si>
-    <x:t>268560137</x:t>
+    <x:t>26.856.013-7</x:t>
   </x:si>
   <x:si>
     <x:t>794</x:t>
@@ -6454,7 +6454,7 @@
     <x:t>Heidi Lang</x:t>
   </x:si>
   <x:si>
-    <x:t>282848096</x:t>
+    <x:t>28.284.809-6</x:t>
   </x:si>
   <x:si>
     <x:t>Champlin, Muller and Hansen</x:t>
@@ -6463,7 +6463,7 @@
     <x:t>Kayla Lynch</x:t>
   </x:si>
   <x:si>
-    <x:t>154282596</x:t>
+    <x:t>15.428.259-6</x:t>
   </x:si>
   <x:si>
     <x:t>Wiegand Group</x:t>
@@ -6472,19 +6472,19 @@
     <x:t>Cesar Boyer</x:t>
   </x:si>
   <x:si>
-    <x:t>236074865</x:t>
+    <x:t>23.607.486-5</x:t>
   </x:si>
   <x:si>
     <x:t>Derek Reichel</x:t>
   </x:si>
   <x:si>
-    <x:t>288689976</x:t>
+    <x:t>28.868.997-6</x:t>
   </x:si>
   <x:si>
     <x:t>Charlotte Kohler</x:t>
   </x:si>
   <x:si>
-    <x:t>161388159</x:t>
+    <x:t>16.138.815-9</x:t>
   </x:si>
   <x:si>
     <x:t>577</x:t>
@@ -6499,13 +6499,13 @@
     <x:t>Arthur Hayes</x:t>
   </x:si>
   <x:si>
-    <x:t>282897186</x:t>
+    <x:t>28.289.718-6</x:t>
   </x:si>
   <x:si>
     <x:t>Darlene Farrell</x:t>
   </x:si>
   <x:si>
-    <x:t>291509347</x:t>
+    <x:t>29.150.934-7</x:t>
   </x:si>
   <x:si>
     <x:t>704</x:t>
@@ -6520,7 +6520,7 @@
     <x:t>Yolanda Gerlach</x:t>
   </x:si>
   <x:si>
-    <x:t>293319820</x:t>
+    <x:t>29.331.982-0</x:t>
   </x:si>
   <x:si>
     <x:t>454</x:t>
@@ -6535,7 +6535,7 @@
     <x:t>Clayton Wisozk</x:t>
   </x:si>
   <x:si>
-    <x:t>220152004</x:t>
+    <x:t>22.015.200-4</x:t>
   </x:si>
   <x:si>
     <x:t>Marquardt - Quigley</x:t>
@@ -6544,7 +6544,7 @@
     <x:t>Brooke Shanahan</x:t>
   </x:si>
   <x:si>
-    <x:t>108418502</x:t>
+    <x:t>10.841.850-2</x:t>
   </x:si>
   <x:si>
     <x:t>McKenzie, Davis and Grady</x:t>
@@ -6559,7 +6559,7 @@
     <x:t>Christine Aufderhar</x:t>
   </x:si>
   <x:si>
-    <x:t>278834957</x:t>
+    <x:t>27.883.495-7</x:t>
   </x:si>
   <x:si>
     <x:t>278</x:t>
@@ -6571,7 +6571,7 @@
     <x:t>Emanuel Cartwright</x:t>
   </x:si>
   <x:si>
-    <x:t>132678543</x:t>
+    <x:t>13.267.854-3</x:t>
   </x:si>
   <x:si>
     <x:t>736</x:t>
@@ -6580,7 +6580,7 @@
     <x:t>Arlene Herzog</x:t>
   </x:si>
   <x:si>
-    <x:t>199394598</x:t>
+    <x:t>19.939.459-8</x:t>
   </x:si>
   <x:si>
     <x:t>819</x:t>
@@ -6592,7 +6592,7 @@
     <x:t>Ebony Gutkowski</x:t>
   </x:si>
   <x:si>
-    <x:t>215213734</x:t>
+    <x:t>21.521.373-4</x:t>
   </x:si>
   <x:si>
     <x:t>Bernier, MacGyver and Hodkiewicz</x:t>
@@ -6604,13 +6604,13 @@
     <x:t>Brandi Champlin</x:t>
   </x:si>
   <x:si>
-    <x:t>126950750</x:t>
+    <x:t>12.695.075-0</x:t>
   </x:si>
   <x:si>
     <x:t>Melissa Lesch</x:t>
   </x:si>
   <x:si>
-    <x:t>166400807</x:t>
+    <x:t>16.640.080-7</x:t>
   </x:si>
   <x:si>
     <x:t>265</x:t>
@@ -6625,13 +6625,13 @@
     <x:t>Cathy Lang</x:t>
   </x:si>
   <x:si>
-    <x:t>169521630</x:t>
+    <x:t>16.952.163-0</x:t>
   </x:si>
   <x:si>
     <x:t>Josh Toy</x:t>
   </x:si>
   <x:si>
-    <x:t>119696193</x:t>
+    <x:t>11.969.619-3</x:t>
   </x:si>
   <x:si>
     <x:t>939</x:t>
@@ -6646,7 +6646,7 @@
     <x:t>Erick Koss</x:t>
   </x:si>
   <x:si>
-    <x:t>102582220</x:t>
+    <x:t>10.258.222-0</x:t>
   </x:si>
   <x:si>
     <x:t>Lueilwitz, Jaskolski and Metz</x:t>
@@ -6658,7 +6658,7 @@
     <x:t>Travis Nolan</x:t>
   </x:si>
   <x:si>
-    <x:t>156547422</x:t>
+    <x:t>15.654.742-2</x:t>
   </x:si>
   <x:si>
     <x:t>Willms - Murray</x:t>
@@ -6670,7 +6670,7 @@
     <x:t>Bernice Pouros</x:t>
   </x:si>
   <x:si>
-    <x:t>249887924</x:t>
+    <x:t>24.988.792-4</x:t>
   </x:si>
   <x:si>
     <x:t>Schmeler, Koepp and Anderson</x:t>
@@ -6685,7 +6685,7 @@
     <x:t>Melissa Hackett</x:t>
   </x:si>
   <x:si>
-    <x:t>239743750</x:t>
+    <x:t>23.974.375-0</x:t>
   </x:si>
   <x:si>
     <x:t>71</x:t>
@@ -6700,7 +6700,7 @@
     <x:t>Sonya Pacocha</x:t>
   </x:si>
   <x:si>
-    <x:t>184279917</x:t>
+    <x:t>18.427.991-7</x:t>
   </x:si>
   <x:si>
     <x:t>Gibson LLC</x:t>
@@ -6709,19 +6709,19 @@
     <x:t>Randolph Abbott</x:t>
   </x:si>
   <x:si>
-    <x:t>165706848</x:t>
+    <x:t>16.570.684-8</x:t>
   </x:si>
   <x:si>
     <x:t>Tamara Kessler</x:t>
   </x:si>
   <x:si>
-    <x:t>117817040</x:t>
+    <x:t>11.781.704-0</x:t>
   </x:si>
   <x:si>
     <x:t>Van Anderson</x:t>
   </x:si>
   <x:si>
-    <x:t>197728472</x:t>
+    <x:t>19.772.847-2</x:t>
   </x:si>
   <x:si>
     <x:t>Murray LLC</x:t>
@@ -6733,7 +6733,7 @@
     <x:t>Terri Hayes</x:t>
   </x:si>
   <x:si>
-    <x:t>221828494</x:t>
+    <x:t>22.182.849-4</x:t>
   </x:si>
   <x:si>
     <x:t>765</x:t>
@@ -6742,13 +6742,13 @@
     <x:t>Dawn Heidenreich</x:t>
   </x:si>
   <x:si>
-    <x:t>298893894</x:t>
+    <x:t>29.889.389-4</x:t>
   </x:si>
   <x:si>
     <x:t>Jasmine Homenick</x:t>
   </x:si>
   <x:si>
-    <x:t>241837758</x:t>
+    <x:t>24.183.775-8</x:t>
   </x:si>
   <x:si>
     <x:t>767</x:t>
@@ -6757,7 +6757,7 @@
     <x:t>Brent Lindgren</x:t>
   </x:si>
   <x:si>
-    <x:t>107449684</x:t>
+    <x:t>10.744.968-4</x:t>
   </x:si>
   <x:si>
     <x:t>770</x:t>
@@ -6766,7 +6766,7 @@
     <x:t>Alan Gislason</x:t>
   </x:si>
   <x:si>
-    <x:t>220990816</x:t>
+    <x:t>22.099.081-6</x:t>
   </x:si>
   <x:si>
     <x:t>Marks, Schoen and Crist</x:t>
@@ -6775,7 +6775,7 @@
     <x:t>Beverly Trantow</x:t>
   </x:si>
   <x:si>
-    <x:t>186111134</x:t>
+    <x:t>18.611.113-4</x:t>
   </x:si>
   <x:si>
     <x:t>35</x:t>
@@ -6787,7 +6787,7 @@
     <x:t>Sandy Grady</x:t>
   </x:si>
   <x:si>
-    <x:t>207613907</x:t>
+    <x:t>20.761.390-7</x:t>
   </x:si>
   <x:si>
     <x:t>776</x:t>
@@ -6796,7 +6796,7 @@
     <x:t>Rachael Herzog</x:t>
   </x:si>
   <x:si>
-    <x:t>278491030</x:t>
+    <x:t>27.849.103-0</x:t>
   </x:si>
   <x:si>
     <x:t>777</x:t>
@@ -6805,7 +6805,7 @@
     <x:t>Sonja Dare</x:t>
   </x:si>
   <x:si>
-    <x:t>261788116</x:t>
+    <x:t>26.178.811-6</x:t>
   </x:si>
   <x:si>
     <x:t>311</x:t>
@@ -6817,13 +6817,13 @@
     <x:t>Gwendolyn Reichert</x:t>
   </x:si>
   <x:si>
-    <x:t>280538413</x:t>
+    <x:t>28.053.841-3</x:t>
   </x:si>
   <x:si>
     <x:t>Sylvia Hammes</x:t>
   </x:si>
   <x:si>
-    <x:t>192058231</x:t>
+    <x:t>19.205.823-1</x:t>
   </x:si>
   <x:si>
     <x:t>801</x:t>
@@ -6835,7 +6835,7 @@
     <x:t>Eunice Hilpert</x:t>
   </x:si>
   <x:si>
-    <x:t>115096418</x:t>
+    <x:t>11.509.641-8</x:t>
   </x:si>
   <x:si>
     <x:t>867</x:t>
@@ -6850,7 +6850,7 @@
     <x:t>Rosemary Steuber</x:t>
   </x:si>
   <x:si>
-    <x:t>290277590</x:t>
+    <x:t>29.027.759-0</x:t>
   </x:si>
   <x:si>
     <x:t>975</x:t>
@@ -6862,7 +6862,7 @@
     <x:t>Seth Collier</x:t>
   </x:si>
   <x:si>
-    <x:t>290079047</x:t>
+    <x:t>29.007.904-7</x:t>
   </x:si>
   <x:si>
     <x:t>815</x:t>
@@ -6874,7 +6874,7 @@
     <x:t>Lillian Hayes</x:t>
   </x:si>
   <x:si>
-    <x:t>199868298</x:t>
+    <x:t>19.986.829-8</x:t>
   </x:si>
   <x:si>
     <x:t>786</x:t>
@@ -6883,7 +6883,7 @@
     <x:t>Christine Mraz</x:t>
   </x:si>
   <x:si>
-    <x:t>125993412</x:t>
+    <x:t>12.599.341-2</x:t>
   </x:si>
   <x:si>
     <x:t>Reilly Group</x:t>
@@ -6892,7 +6892,7 @@
     <x:t>Yvonne Gorczany</x:t>
   </x:si>
   <x:si>
-    <x:t>241912016</x:t>
+    <x:t>24.191.201-6</x:t>
   </x:si>
   <x:si>
     <x:t>Davis, Towne and Rau</x:t>
@@ -6904,13 +6904,13 @@
     <x:t>Kayla King</x:t>
   </x:si>
   <x:si>
-    <x:t>247552526</x:t>
+    <x:t>24.755.252-6</x:t>
   </x:si>
   <x:si>
     <x:t>Roy Ebert</x:t>
   </x:si>
   <x:si>
-    <x:t>150486863</x:t>
+    <x:t>15.048.686-3</x:t>
   </x:si>
   <x:si>
     <x:t>509</x:t>
@@ -6922,7 +6922,7 @@
     <x:t>Joanne Predovic</x:t>
   </x:si>
   <x:si>
-    <x:t>163824304</x:t>
+    <x:t>16.382.430-4</x:t>
   </x:si>
   <x:si>
     <x:t>900</x:t>
@@ -6937,7 +6937,7 @@
     <x:t>Jason Hammes</x:t>
   </x:si>
   <x:si>
-    <x:t>207291098</x:t>
+    <x:t>20.729.109-8</x:t>
   </x:si>
   <x:si>
     <x:t>658</x:t>
@@ -6949,7 +6949,7 @@
     <x:t>Darren Stark</x:t>
   </x:si>
   <x:si>
-    <x:t>213087235</x:t>
+    <x:t>21.308.723-5</x:t>
   </x:si>
   <x:si>
     <x:t>Bahringer - Ondricka</x:t>
@@ -6964,13 +6964,13 @@
     <x:t>Kate Koss</x:t>
   </x:si>
   <x:si>
-    <x:t>126938229</x:t>
+    <x:t>12.693.822-9</x:t>
   </x:si>
   <x:si>
     <x:t>Conrad Hansen</x:t>
   </x:si>
   <x:si>
-    <x:t>268076375</x:t>
+    <x:t>26.807.637-5</x:t>
   </x:si>
   <x:si>
     <x:t>972</x:t>
@@ -6982,13 +6982,13 @@
     <x:t>Phyllis Reinger</x:t>
   </x:si>
   <x:si>
-    <x:t>126141479</x:t>
+    <x:t>12.614.147-9</x:t>
   </x:si>
   <x:si>
     <x:t>Cindy Lynch</x:t>
   </x:si>
   <x:si>
-    <x:t>198428146</x:t>
+    <x:t>19.842.814-6</x:t>
   </x:si>
   <x:si>
     <x:t>804</x:t>
@@ -6997,7 +6997,7 @@
     <x:t>Jackie Terry</x:t>
   </x:si>
   <x:si>
-    <x:t>124496539</x:t>
+    <x:t>12.449.653-9</x:t>
   </x:si>
   <x:si>
     <x:t>215</x:t>
@@ -7012,7 +7012,7 @@
     <x:t>Inez Osinski</x:t>
   </x:si>
   <x:si>
-    <x:t>240265149</x:t>
+    <x:t>24.026.514-9</x:t>
   </x:si>
   <x:si>
     <x:t>Rice, Schuppe and Ratke</x:t>
@@ -7024,7 +7024,7 @@
     <x:t>Glenn Homenick</x:t>
   </x:si>
   <x:si>
-    <x:t>175926883</x:t>
+    <x:t>17.592.688-3</x:t>
   </x:si>
   <x:si>
     <x:t>987</x:t>
@@ -7036,7 +7036,7 @@
     <x:t>Delores Vandervort</x:t>
   </x:si>
   <x:si>
-    <x:t>189358947</x:t>
+    <x:t>18.935.894-7</x:t>
   </x:si>
   <x:si>
     <x:t>638</x:t>
@@ -7048,7 +7048,7 @@
     <x:t>Marta Prosacco</x:t>
   </x:si>
   <x:si>
-    <x:t>256267073</x:t>
+    <x:t>25.626.707-3</x:t>
   </x:si>
   <x:si>
     <x:t>885</x:t>
@@ -7066,25 +7066,25 @@
     <x:t>Rhonda Fritsch</x:t>
   </x:si>
   <x:si>
-    <x:t>267828764</x:t>
+    <x:t>26.782.876-4</x:t>
   </x:si>
   <x:si>
     <x:t>Noel Goldner</x:t>
   </x:si>
   <x:si>
-    <x:t>164090177</x:t>
+    <x:t>16.409.017-7</x:t>
   </x:si>
   <x:si>
     <x:t>Rose Graham</x:t>
   </x:si>
   <x:si>
-    <x:t>281577544</x:t>
+    <x:t>28.157.754-4</x:t>
   </x:si>
   <x:si>
     <x:t>Juanita Kohler</x:t>
   </x:si>
   <x:si>
-    <x:t>150545061</x:t>
+    <x:t>15.054.506-1</x:t>
   </x:si>
   <x:si>
     <x:t>322</x:t>
@@ -7096,7 +7096,7 @@
     <x:t>Lindsay Stanton</x:t>
   </x:si>
   <x:si>
-    <x:t>118364189</x:t>
+    <x:t>11.836.418-9</x:t>
   </x:si>
   <x:si>
     <x:t>816</x:t>
@@ -7105,7 +7105,7 @@
     <x:t>Denise Wuckert</x:t>
   </x:si>
   <x:si>
-    <x:t>112327060</x:t>
+    <x:t>11.232.706-0</x:t>
   </x:si>
   <x:si>
     <x:t>Mraz, Donnelly and Schmitt</x:t>
@@ -7114,13 +7114,13 @@
     <x:t>Maria McCullough</x:t>
   </x:si>
   <x:si>
-    <x:t>129561126</x:t>
+    <x:t>12.956.112-6</x:t>
   </x:si>
   <x:si>
     <x:t>Debra Kris</x:t>
   </x:si>
   <x:si>
-    <x:t>111645336</x:t>
+    <x:t>11.164.533-6</x:t>
   </x:si>
   <x:si>
     <x:t>162</x:t>
@@ -7135,7 +7135,7 @@
     <x:t>Evelyn Schultz</x:t>
   </x:si>
   <x:si>
-    <x:t>275613399</x:t>
+    <x:t>27.561.339-9</x:t>
   </x:si>
   <x:si>
     <x:t>Johns Inc</x:t>
@@ -7147,7 +7147,7 @@
     <x:t>Jay Dooley</x:t>
   </x:si>
   <x:si>
-    <x:t>278451802</x:t>
+    <x:t>27.845.180-2</x:t>
   </x:si>
   <x:si>
     <x:t>Upton - Stamm</x:t>
@@ -7156,13 +7156,13 @@
     <x:t>Edna Lueilwitz</x:t>
   </x:si>
   <x:si>
-    <x:t>133570827</x:t>
+    <x:t>13.357.082-7</x:t>
   </x:si>
   <x:si>
     <x:t>George Rolfson</x:t>
   </x:si>
   <x:si>
-    <x:t>163181470</x:t>
+    <x:t>16.318.147-0</x:t>
   </x:si>
   <x:si>
     <x:t>Little LLC</x:t>
@@ -7183,7 +7183,7 @@
     <x:t>Wilma Zboncak</x:t>
   </x:si>
   <x:si>
-    <x:t>269308849</x:t>
+    <x:t>26.930.884-9</x:t>
   </x:si>
   <x:si>
     <x:t>Wiegand - Leffler</x:t>
@@ -7195,7 +7195,7 @@
     <x:t>Johnny Emard</x:t>
   </x:si>
   <x:si>
-    <x:t>205309135</x:t>
+    <x:t>20.530.913-5</x:t>
   </x:si>
   <x:si>
     <x:t>Nikolaus, Leuschke and Pfeffer</x:t>
@@ -7204,7 +7204,7 @@
     <x:t>Marion Kuhic</x:t>
   </x:si>
   <x:si>
-    <x:t>219614512</x:t>
+    <x:t>21.961.451-2</x:t>
   </x:si>
   <x:si>
     <x:t>Brekke, Mann and Anderson</x:t>
@@ -7216,7 +7216,7 @@
     <x:t>Alfred Wiza</x:t>
   </x:si>
   <x:si>
-    <x:t>170620417</x:t>
+    <x:t>17.062.041-7</x:t>
   </x:si>
   <x:si>
     <x:t>834</x:t>
@@ -7225,7 +7225,7 @@
     <x:t>Thelma Koelpin</x:t>
   </x:si>
   <x:si>
-    <x:t>257304479</x:t>
+    <x:t>25.730.447-9</x:t>
   </x:si>
   <x:si>
     <x:t>836</x:t>
@@ -7234,7 +7234,7 @@
     <x:t>Lucia Mante</x:t>
   </x:si>
   <x:si>
-    <x:t>109072448</x:t>
+    <x:t>10.907.244-8</x:t>
   </x:si>
   <x:si>
     <x:t>Smitham - Moen</x:t>
@@ -7246,7 +7246,7 @@
     <x:t>Ann Shanahan</x:t>
   </x:si>
   <x:si>
-    <x:t>130587206</x:t>
+    <x:t>13.058.720-6</x:t>
   </x:si>
   <x:si>
     <x:t>Botsford - Paucek</x:t>
@@ -7258,7 +7258,7 @@
     <x:t>Juan Volkman</x:t>
   </x:si>
   <x:si>
-    <x:t>183547950</x:t>
+    <x:t>18.354.795-0</x:t>
   </x:si>
   <x:si>
     <x:t>Bins, Hills and Barrows</x:t>
@@ -7267,7 +7267,7 @@
     <x:t>Rosie O'Kon</x:t>
   </x:si>
   <x:si>
-    <x:t>119996570</x:t>
+    <x:t>11.999.657-0</x:t>
   </x:si>
   <x:si>
     <x:t>841</x:t>
@@ -7276,19 +7276,19 @@
     <x:t>Travis Botsford</x:t>
   </x:si>
   <x:si>
-    <x:t>194869334</x:t>
+    <x:t>19.486.933-4</x:t>
   </x:si>
   <x:si>
     <x:t>Belinda Mann</x:t>
   </x:si>
   <x:si>
-    <x:t>185777899</x:t>
+    <x:t>18.577.789-9</x:t>
   </x:si>
   <x:si>
     <x:t>Sue Ward</x:t>
   </x:si>
   <x:si>
-    <x:t>256435570</x:t>
+    <x:t>25.643.557-0</x:t>
   </x:si>
   <x:si>
     <x:t>Lynch - DuBuque</x:t>
@@ -7300,13 +7300,13 @@
     <x:t>Kelvin Reilly</x:t>
   </x:si>
   <x:si>
-    <x:t>114053820</x:t>
+    <x:t>11.405.382-0</x:t>
   </x:si>
   <x:si>
     <x:t>Kim Goodwin</x:t>
   </x:si>
   <x:si>
-    <x:t>171656610</x:t>
+    <x:t>17.165.661-0</x:t>
   </x:si>
   <x:si>
     <x:t>Kuhn, Kub and Denesik</x:t>
@@ -7318,7 +7318,7 @@
     <x:t>Ivan Pouros</x:t>
   </x:si>
   <x:si>
-    <x:t>245240640</x:t>
+    <x:t>24.524.064-0</x:t>
   </x:si>
   <x:si>
     <x:t>Powlowski Group</x:t>
@@ -7330,7 +7330,7 @@
     <x:t>Carl Krajcik</x:t>
   </x:si>
   <x:si>
-    <x:t>245117911</x:t>
+    <x:t>24.511.791-1</x:t>
   </x:si>
   <x:si>
     <x:t>850</x:t>
@@ -7339,7 +7339,7 @@
     <x:t>Angel Johnston</x:t>
   </x:si>
   <x:si>
-    <x:t>262937042</x:t>
+    <x:t>26.293.704-2</x:t>
   </x:si>
   <x:si>
     <x:t>41</x:t>
@@ -7351,19 +7351,19 @@
     <x:t>Betsy Johnson</x:t>
   </x:si>
   <x:si>
-    <x:t>216127734</x:t>
+    <x:t>21.612.773-4</x:t>
   </x:si>
   <x:si>
     <x:t>Cecil Parisian</x:t>
   </x:si>
   <x:si>
-    <x:t>277437881</x:t>
+    <x:t>27.743.788-1</x:t>
   </x:si>
   <x:si>
     <x:t>Gloria Boehm</x:t>
   </x:si>
   <x:si>
-    <x:t>219372586</x:t>
+    <x:t>21.937.258-6</x:t>
   </x:si>
   <x:si>
     <x:t>Johnson, Barrows and Koepp</x:t>
@@ -7372,7 +7372,7 @@
     <x:t>Rogelio Walsh</x:t>
   </x:si>
   <x:si>
-    <x:t>260602744</x:t>
+    <x:t>26.060.274-4</x:t>
   </x:si>
   <x:si>
     <x:t>Metz, Rutherford and Mante</x:t>
@@ -7384,7 +7384,7 @@
     <x:t>Muriel Reynolds</x:t>
   </x:si>
   <x:si>
-    <x:t>222015462</x:t>
+    <x:t>22.201.546-2</x:t>
   </x:si>
   <x:si>
     <x:t>Wisoky LLC</x:t>
@@ -7393,7 +7393,7 @@
     <x:t>Natalie Borer</x:t>
   </x:si>
   <x:si>
-    <x:t>205206050</x:t>
+    <x:t>20.520.605-0</x:t>
   </x:si>
   <x:si>
     <x:t>775</x:t>
@@ -7414,7 +7414,7 @@
     <x:t>Harold Vandervort</x:t>
   </x:si>
   <x:si>
-    <x:t>143902369</x:t>
+    <x:t>14.390.236-9</x:t>
   </x:si>
   <x:si>
     <x:t>Kihn - Doyle</x:t>
@@ -7426,7 +7426,7 @@
     <x:t>Bernadette Schiller</x:t>
   </x:si>
   <x:si>
-    <x:t>115748415</x:t>
+    <x:t>11.574.841-5</x:t>
   </x:si>
   <x:si>
     <x:t>Berge Group</x:t>
@@ -7438,7 +7438,7 @@
     <x:t>Archie Kling</x:t>
   </x:si>
   <x:si>
-    <x:t>227226038</x:t>
+    <x:t>22.722.603-8</x:t>
   </x:si>
   <x:si>
     <x:t>Hoppe - Lubowitz</x:t>
@@ -7456,7 +7456,7 @@
     <x:t>Tomas Kuhlman</x:t>
   </x:si>
   <x:si>
-    <x:t>155484940</x:t>
+    <x:t>15.548.494-0</x:t>
   </x:si>
   <x:si>
     <x:t>MacGyver, Treutel and Ortiz</x:t>
@@ -7465,7 +7465,7 @@
     <x:t>Gregory McCullough</x:t>
   </x:si>
   <x:si>
-    <x:t>246394846</x:t>
+    <x:t>24.639.484-6</x:t>
   </x:si>
   <x:si>
     <x:t>868</x:t>
@@ -7474,13 +7474,13 @@
     <x:t>Beulah Wisoky</x:t>
   </x:si>
   <x:si>
-    <x:t>230601405</x:t>
+    <x:t>23.060.140-5</x:t>
   </x:si>
   <x:si>
     <x:t>Darlene Runolfsdottir</x:t>
   </x:si>
   <x:si>
-    <x:t>230659462</x:t>
+    <x:t>23.065.946-2</x:t>
   </x:si>
   <x:si>
     <x:t>36</x:t>
@@ -7492,19 +7492,19 @@
     <x:t>Sherman Franecki</x:t>
   </x:si>
   <x:si>
-    <x:t>139379851</x:t>
+    <x:t>13.937.985-1</x:t>
   </x:si>
   <x:si>
     <x:t>Jermaine Pfeffer</x:t>
   </x:si>
   <x:si>
-    <x:t>142099457</x:t>
+    <x:t>14.209.945-7</x:t>
   </x:si>
   <x:si>
     <x:t>Melanie Upton</x:t>
   </x:si>
   <x:si>
-    <x:t>145778037</x:t>
+    <x:t>14.577.803-7</x:t>
   </x:si>
   <x:si>
     <x:t>Predovic Inc</x:t>
@@ -7513,7 +7513,7 @@
     <x:t>Domingo Casper</x:t>
   </x:si>
   <x:si>
-    <x:t>247808156</x:t>
+    <x:t>24.780.815-6</x:t>
   </x:si>
   <x:si>
     <x:t>Zieme - Wiza</x:t>
@@ -7522,7 +7522,7 @@
     <x:t>Katie Brown</x:t>
   </x:si>
   <x:si>
-    <x:t>115660801</x:t>
+    <x:t>11.566.080-1</x:t>
   </x:si>
   <x:si>
     <x:t>772</x:t>
@@ -7534,7 +7534,7 @@
     <x:t>Lula Schumm</x:t>
   </x:si>
   <x:si>
-    <x:t>243250169</x:t>
+    <x:t>24.325.016-9</x:t>
   </x:si>
   <x:si>
     <x:t>879</x:t>
@@ -7543,7 +7543,7 @@
     <x:t>Tami Schowalter</x:t>
   </x:si>
   <x:si>
-    <x:t>245507027</x:t>
+    <x:t>24.550.702-7</x:t>
   </x:si>
   <x:si>
     <x:t>Gusikowski - Kunde</x:t>
@@ -7561,7 +7561,7 @@
     <x:t>Grant Batz</x:t>
   </x:si>
   <x:si>
-    <x:t>265564018</x:t>
+    <x:t>26.556.401-8</x:t>
   </x:si>
   <x:si>
     <x:t>985</x:t>
@@ -7576,7 +7576,7 @@
     <x:t>Jamie Grimes</x:t>
   </x:si>
   <x:si>
-    <x:t>163223491</x:t>
+    <x:t>16.322.349-1</x:t>
   </x:si>
   <x:si>
     <x:t>883</x:t>
@@ -7585,7 +7585,7 @@
     <x:t>Janis Kerluke</x:t>
   </x:si>
   <x:si>
-    <x:t>286380560</x:t>
+    <x:t>28.638.056-0</x:t>
   </x:si>
   <x:si>
     <x:t>Stracke, Hills and Schmidt</x:t>
@@ -7597,7 +7597,7 @@
     <x:t>Matthew Hoeger</x:t>
   </x:si>
   <x:si>
-    <x:t>227942140</x:t>
+    <x:t>22.794.214-0</x:t>
   </x:si>
   <x:si>
     <x:t>100</x:t>
@@ -7609,13 +7609,13 @@
     <x:t>Morris Schaden</x:t>
   </x:si>
   <x:si>
-    <x:t>287158462</x:t>
+    <x:t>28.715.846-2</x:t>
   </x:si>
   <x:si>
     <x:t>Estelle Windler</x:t>
   </x:si>
   <x:si>
-    <x:t>226870367</x:t>
+    <x:t>22.687.036-7</x:t>
   </x:si>
   <x:si>
     <x:t>890</x:t>
@@ -7624,7 +7624,7 @@
     <x:t>Crystal Crooks</x:t>
   </x:si>
   <x:si>
-    <x:t>123023050</x:t>
+    <x:t>12.302.305-0</x:t>
   </x:si>
   <x:si>
     <x:t>1000</x:t>
@@ -7636,7 +7636,7 @@
     <x:t>Vicki Schumm</x:t>
   </x:si>
   <x:si>
-    <x:t>112354548</x:t>
+    <x:t>11.235.454-8</x:t>
   </x:si>
   <x:si>
     <x:t>Hilpert, Spencer and Treutel</x:t>
@@ -7645,7 +7645,7 @@
     <x:t>Jenny Botsford</x:t>
   </x:si>
   <x:si>
-    <x:t>195213041</x:t>
+    <x:t>19.521.304-1</x:t>
   </x:si>
   <x:si>
     <x:t>472</x:t>
@@ -7660,25 +7660,25 @@
     <x:t>Seth Jacobs</x:t>
   </x:si>
   <x:si>
-    <x:t>266084257</x:t>
+    <x:t>26.608.425-7</x:t>
   </x:si>
   <x:si>
     <x:t>Samantha Simonis</x:t>
   </x:si>
   <x:si>
-    <x:t>274848430</x:t>
+    <x:t>27.484.843-0</x:t>
   </x:si>
   <x:si>
     <x:t>Gordon Paucek</x:t>
   </x:si>
   <x:si>
-    <x:t>206413890</x:t>
+    <x:t>20.641.389-0</x:t>
   </x:si>
   <x:si>
     <x:t>Mattie Volkman</x:t>
   </x:si>
   <x:si>
-    <x:t>189038853</x:t>
+    <x:t>18.903.885-3</x:t>
   </x:si>
   <x:si>
     <x:t>Fadel - Thiel</x:t>
@@ -7696,13 +7696,13 @@
     <x:t>Joe Grady</x:t>
   </x:si>
   <x:si>
-    <x:t>164934928</x:t>
+    <x:t>16.493.492-8</x:t>
   </x:si>
   <x:si>
     <x:t>Mark Skiles</x:t>
   </x:si>
   <x:si>
-    <x:t>230121748</x:t>
+    <x:t>23.012.174-8</x:t>
   </x:si>
   <x:si>
     <x:t>Flatley, Yundt and O'Conner</x:t>
@@ -7711,7 +7711,7 @@
     <x:t>Kate Wisozk</x:t>
   </x:si>
   <x:si>
-    <x:t>155978748</x:t>
+    <x:t>15.597.874-8</x:t>
   </x:si>
   <x:si>
     <x:t>Hahn - Littel</x:t>
@@ -7720,7 +7720,7 @@
     <x:t>Karl Leuschke</x:t>
   </x:si>
   <x:si>
-    <x:t>218331746</x:t>
+    <x:t>21.833.174-6</x:t>
   </x:si>
   <x:si>
     <x:t>62</x:t>
@@ -7732,7 +7732,7 @@
     <x:t>Natasha Mohr</x:t>
   </x:si>
   <x:si>
-    <x:t>136810101</x:t>
+    <x:t>13.681.010-1</x:t>
   </x:si>
   <x:si>
     <x:t>Quigley, Roob and Lockman</x:t>
@@ -7741,7 +7741,7 @@
     <x:t>Corey Batz</x:t>
   </x:si>
   <x:si>
-    <x:t>288459377</x:t>
+    <x:t>28.845.937-7</x:t>
   </x:si>
   <x:si>
     <x:t>57</x:t>
@@ -7756,13 +7756,13 @@
     <x:t>Dustin Nader</x:t>
   </x:si>
   <x:si>
-    <x:t>141932147</x:t>
+    <x:t>14.193.214-7</x:t>
   </x:si>
   <x:si>
     <x:t>Stephen Becker</x:t>
   </x:si>
   <x:si>
-    <x:t>161099262</x:t>
+    <x:t>16.109.926-2</x:t>
   </x:si>
   <x:si>
     <x:t>536</x:t>
@@ -7777,7 +7777,7 @@
     <x:t>Gina Weber</x:t>
   </x:si>
   <x:si>
-    <x:t>210681390</x:t>
+    <x:t>21.068.139-0</x:t>
   </x:si>
   <x:si>
     <x:t>912</x:t>
@@ -7786,7 +7786,7 @@
     <x:t>Rogelio Wisoky</x:t>
   </x:si>
   <x:si>
-    <x:t>225761378</x:t>
+    <x:t>22.576.137-8</x:t>
   </x:si>
   <x:si>
     <x:t>Stehr and Sons</x:t>
@@ -7795,7 +7795,7 @@
     <x:t>Ashley Satterfield</x:t>
   </x:si>
   <x:si>
-    <x:t>288482158</x:t>
+    <x:t>28.848.215-8</x:t>
   </x:si>
   <x:si>
     <x:t>Champlin Inc</x:t>
@@ -7804,7 +7804,7 @@
     <x:t>Ernestine Heidenreich</x:t>
   </x:si>
   <x:si>
-    <x:t>263655253</x:t>
+    <x:t>26.365.525-3</x:t>
   </x:si>
   <x:si>
     <x:t>651</x:t>
@@ -7819,7 +7819,7 @@
     <x:t>Georgia Effertz</x:t>
   </x:si>
   <x:si>
-    <x:t>115139265</x:t>
+    <x:t>11.513.926-5</x:t>
   </x:si>
   <x:si>
     <x:t>960</x:t>
@@ -7834,7 +7834,7 @@
     <x:t>Loretta Tremblay</x:t>
   </x:si>
   <x:si>
-    <x:t>273360680</x:t>
+    <x:t>27.336.068-0</x:t>
   </x:si>
   <x:si>
     <x:t>242</x:t>
@@ -7846,7 +7846,7 @@
     <x:t>Theodore Lockman</x:t>
   </x:si>
   <x:si>
-    <x:t>184779090</x:t>
+    <x:t>18.477.909-0</x:t>
   </x:si>
   <x:si>
     <x:t>926</x:t>
@@ -7855,7 +7855,7 @@
     <x:t>Angelo Boyle</x:t>
   </x:si>
   <x:si>
-    <x:t>117746142</x:t>
+    <x:t>11.774.614-2</x:t>
   </x:si>
   <x:si>
     <x:t>351</x:t>
@@ -7864,19 +7864,19 @@
     <x:t>Marlon Lakin</x:t>
   </x:si>
   <x:si>
-    <x:t>105423300</x:t>
+    <x:t>10.542.330-0</x:t>
   </x:si>
   <x:si>
     <x:t>Carl Sawayn</x:t>
   </x:si>
   <x:si>
-    <x:t>169057151</x:t>
+    <x:t>16.905.715-1</x:t>
   </x:si>
   <x:si>
     <x:t>Gayle Runte</x:t>
   </x:si>
   <x:si>
-    <x:t>137091109</x:t>
+    <x:t>13.709.110-9</x:t>
   </x:si>
   <x:si>
     <x:t>Ortiz, Torp and Becker</x:t>
@@ -7891,7 +7891,7 @@
     <x:t>Marie Thiel</x:t>
   </x:si>
   <x:si>
-    <x:t>103046330</x:t>
+    <x:t>10.304.633-0</x:t>
   </x:si>
   <x:si>
     <x:t>Marquardt - Bayer</x:t>
@@ -7900,7 +7900,7 @@
     <x:t>Betty Schmidt</x:t>
   </x:si>
   <x:si>
-    <x:t>261948440</x:t>
+    <x:t>26.194.844-0</x:t>
   </x:si>
   <x:si>
     <x:t>Mills Group</x:t>
@@ -7909,7 +7909,7 @@
     <x:t>Roberta Bahringer</x:t>
   </x:si>
   <x:si>
-    <x:t>134956648</x:t>
+    <x:t>13.495.664-8</x:t>
   </x:si>
   <x:si>
     <x:t>304</x:t>
@@ -7918,7 +7918,7 @@
     <x:t>Gladys Jones</x:t>
   </x:si>
   <x:si>
-    <x:t>209619031</x:t>
+    <x:t>20.961.903-1</x:t>
   </x:si>
   <x:si>
     <x:t>967</x:t>
@@ -7930,7 +7930,7 @@
     <x:t>Genevieve Jerde</x:t>
   </x:si>
   <x:si>
-    <x:t>107385570</x:t>
+    <x:t>10.738.557-0</x:t>
   </x:si>
   <x:si>
     <x:t>Bode, Vandervort and Denesik</x:t>
@@ -7942,13 +7942,13 @@
     <x:t>Margaret Treutel</x:t>
   </x:si>
   <x:si>
-    <x:t>287860345</x:t>
+    <x:t>28.786.034-5</x:t>
   </x:si>
   <x:si>
     <x:t>Sylvia Nader</x:t>
   </x:si>
   <x:si>
-    <x:t>283692286</x:t>
+    <x:t>28.369.228-6</x:t>
   </x:si>
   <x:si>
     <x:t>979</x:t>
@@ -7960,13 +7960,13 @@
     <x:t>Samantha Schneider</x:t>
   </x:si>
   <x:si>
-    <x:t>112467369</x:t>
+    <x:t>11.246.736-9</x:t>
   </x:si>
   <x:si>
     <x:t>Clay Witting</x:t>
   </x:si>
   <x:si>
-    <x:t>190785454</x:t>
+    <x:t>19.078.545-4</x:t>
   </x:si>
   <x:si>
     <x:t>Mitchell - Senger</x:t>
@@ -7975,7 +7975,7 @@
     <x:t>Raquel Willms</x:t>
   </x:si>
   <x:si>
-    <x:t>265985056</x:t>
+    <x:t>26.598.505-6</x:t>
   </x:si>
   <x:si>
     <x:t>947</x:t>
@@ -7984,7 +7984,7 @@
     <x:t>Boyd Kessler</x:t>
   </x:si>
   <x:si>
-    <x:t>287793958</x:t>
+    <x:t>28.779.395-8</x:t>
   </x:si>
   <x:si>
     <x:t>Gleichner and Sons</x:t>
@@ -7996,13 +7996,13 @@
     <x:t>Marlene Gulgowski</x:t>
   </x:si>
   <x:si>
-    <x:t>176940383</x:t>
+    <x:t>17.694.038-3</x:t>
   </x:si>
   <x:si>
     <x:t>Guadalupe Bosco</x:t>
   </x:si>
   <x:si>
-    <x:t>110291948</x:t>
+    <x:t>11.029.194-8</x:t>
   </x:si>
   <x:si>
     <x:t>950</x:t>
@@ -8011,7 +8011,7 @@
     <x:t>Francis Dach</x:t>
   </x:si>
   <x:si>
-    <x:t>285290428</x:t>
+    <x:t>28.529.042-8</x:t>
   </x:si>
   <x:si>
     <x:t>778</x:t>
@@ -8026,7 +8026,7 @@
     <x:t>Bradford Harris</x:t>
   </x:si>
   <x:si>
-    <x:t>224260952</x:t>
+    <x:t>22.426.095-2</x:t>
   </x:si>
   <x:si>
     <x:t>953</x:t>
@@ -8035,7 +8035,7 @@
     <x:t>Teri Haley</x:t>
   </x:si>
   <x:si>
-    <x:t>219946019</x:t>
+    <x:t>21.994.601-9</x:t>
   </x:si>
   <x:si>
     <x:t>Blick Inc</x:t>
@@ -8044,13 +8044,13 @@
     <x:t>Marjorie Koepp</x:t>
   </x:si>
   <x:si>
-    <x:t>257713239</x:t>
+    <x:t>25.771.323-9</x:t>
   </x:si>
   <x:si>
     <x:t>Robert Schoen</x:t>
   </x:si>
   <x:si>
-    <x:t>266384234</x:t>
+    <x:t>26.638.423-4</x:t>
   </x:si>
   <x:si>
     <x:t>Friesen - Roob</x:t>
@@ -8062,7 +8062,7 @@
     <x:t>Shawna Ruecker</x:t>
   </x:si>
   <x:si>
-    <x:t>244084980</x:t>
+    <x:t>24.408.498-0</x:t>
   </x:si>
   <x:si>
     <x:t>821</x:t>
@@ -8074,19 +8074,19 @@
     <x:t>Mitchell Stiedemann</x:t>
   </x:si>
   <x:si>
-    <x:t>197943934</x:t>
+    <x:t>19.794.393-4</x:t>
   </x:si>
   <x:si>
     <x:t>Myrtle Mohr</x:t>
   </x:si>
   <x:si>
-    <x:t>176618074</x:t>
+    <x:t>17.661.807-4</x:t>
   </x:si>
   <x:si>
     <x:t>Ida Marvin</x:t>
   </x:si>
   <x:si>
-    <x:t>294648380</x:t>
+    <x:t>29.464.838-0</x:t>
   </x:si>
   <x:si>
     <x:t>Kuhic Inc</x:t>
@@ -8095,7 +8095,7 @@
     <x:t>Celia Herman</x:t>
   </x:si>
   <x:si>
-    <x:t>208994106</x:t>
+    <x:t>20.899.410-6</x:t>
   </x:si>
   <x:si>
     <x:t>965</x:t>
@@ -8104,7 +8104,7 @@
     <x:t>Sheri Kerluke</x:t>
   </x:si>
   <x:si>
-    <x:t>115202935</x:t>
+    <x:t>11.520.293-5</x:t>
   </x:si>
   <x:si>
     <x:t>301</x:t>
@@ -8119,7 +8119,7 @@
     <x:t>Cecilia Crist</x:t>
   </x:si>
   <x:si>
-    <x:t>164332863</x:t>
+    <x:t>16.433.286-3</x:t>
   </x:si>
   <x:si>
     <x:t>Koepp Group</x:t>
@@ -8128,7 +8128,7 @@
     <x:t>Hubert Weimann</x:t>
   </x:si>
   <x:si>
-    <x:t>217891446</x:t>
+    <x:t>21.789.144-6</x:t>
   </x:si>
   <x:si>
     <x:t>969</x:t>
@@ -8137,25 +8137,25 @@
     <x:t>Verna Nienow</x:t>
   </x:si>
   <x:si>
-    <x:t>167920740</x:t>
+    <x:t>16.792.074-0</x:t>
   </x:si>
   <x:si>
     <x:t>Ken Dickens</x:t>
   </x:si>
   <x:si>
-    <x:t>200569805</x:t>
+    <x:t>20.056.980-5</x:t>
   </x:si>
   <x:si>
     <x:t>Ramon Greenholt</x:t>
   </x:si>
   <x:si>
-    <x:t>138541787</x:t>
+    <x:t>13.854.178-7</x:t>
   </x:si>
   <x:si>
     <x:t>Robert Little</x:t>
   </x:si>
   <x:si>
-    <x:t>188895574</x:t>
+    <x:t>18.889.557-4</x:t>
   </x:si>
   <x:si>
     <x:t>Lebsack, Terry and Kozey</x:t>
@@ -8164,19 +8164,19 @@
     <x:t>Pam Baumbach</x:t>
   </x:si>
   <x:si>
-    <x:t>214818136</x:t>
+    <x:t>21.481.813-6</x:t>
   </x:si>
   <x:si>
     <x:t>Lynda Harvey</x:t>
   </x:si>
   <x:si>
-    <x:t>282218912</x:t>
+    <x:t>28.221.891-2</x:t>
   </x:si>
   <x:si>
     <x:t>Andy Harvey</x:t>
   </x:si>
   <x:si>
-    <x:t>244993874</x:t>
+    <x:t>24.499.387-4</x:t>
   </x:si>
   <x:si>
     <x:t>980</x:t>
@@ -8185,7 +8185,7 @@
     <x:t>Philip Lesch</x:t>
   </x:si>
   <x:si>
-    <x:t>145615715</x:t>
+    <x:t>14.561.571-5</x:t>
   </x:si>
   <x:si>
     <x:t>653</x:t>
@@ -8200,19 +8200,19 @@
     <x:t>Gerardo Brakus</x:t>
   </x:si>
   <x:si>
-    <x:t>108156354</x:t>
+    <x:t>10.815.635-4</x:t>
   </x:si>
   <x:si>
     <x:t>Allison Hermiston</x:t>
   </x:si>
   <x:si>
-    <x:t>217432891</x:t>
+    <x:t>21.743.289-1</x:t>
   </x:si>
   <x:si>
     <x:t>Glen Bailey</x:t>
   </x:si>
   <x:si>
-    <x:t>171403169</x:t>
+    <x:t>17.140.316-9</x:t>
   </x:si>
   <x:si>
     <x:t>299</x:t>
@@ -8233,19 +8233,19 @@
     <x:t>Janis Borer</x:t>
   </x:si>
   <x:si>
-    <x:t>175243620</x:t>
+    <x:t>17.524.362-0</x:t>
   </x:si>
   <x:si>
     <x:t>Francisco Hyatt</x:t>
   </x:si>
   <x:si>
-    <x:t>136283110</x:t>
+    <x:t>13.628.311-0</x:t>
   </x:si>
   <x:si>
     <x:t>Wilson Gutmann</x:t>
   </x:si>
   <x:si>
-    <x:t>119422662</x:t>
+    <x:t>11.942.266-2</x:t>
   </x:si>
   <x:si>
     <x:t>Davis - Klocko</x:t>
@@ -8254,7 +8254,7 @@
     <x:t>Harvey Roberts</x:t>
   </x:si>
   <x:si>
-    <x:t>122354192</x:t>
+    <x:t>12.235.419-2</x:t>
   </x:si>
   <x:si>
     <x:t>993</x:t>
@@ -8263,7 +8263,7 @@
     <x:t>Rodolfo Wilkinson</x:t>
   </x:si>
   <x:si>
-    <x:t>234993030</x:t>
+    <x:t>23.499.303-0</x:t>
   </x:si>
   <x:si>
     <x:t>497</x:t>
@@ -8278,13 +8278,13 @@
     <x:t>Richard Douglas</x:t>
   </x:si>
   <x:si>
-    <x:t>133546950</x:t>
+    <x:t>13.354.695-0</x:t>
   </x:si>
   <x:si>
     <x:t>Brooke Hirthe</x:t>
   </x:si>
   <x:si>
-    <x:t>163354189</x:t>
+    <x:t>16.335.418-9</x:t>
   </x:si>
 </x:sst>
 </file>
